--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Total" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total!$A$1:$R$801</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total!$A$1:$R$801</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total!$A$1:$R$801</definedName>
   </definedNames>
@@ -11694,7 +11695,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="top"/>
+      <alignment vertical="bottom"/>
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
@@ -12008,8 +12009,8 @@
   <dimension ref="A1:U801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="P1" zoomScale="71">
-      <pane ySplit="1" topLeftCell="A127" state="frozen" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="R225" sqref="R225"/>
+      <pane ySplit="1" topLeftCell="A206" state="frozen" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="Q217" sqref="Q217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9"/>
@@ -12090,7 +12091,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="2" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="2" spans="8:8" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2886</v>
       </c>
@@ -12144,7 +12145,7 @@
       </c>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="3" spans="8:8" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2886</v>
       </c>
@@ -12198,7 +12199,7 @@
       </c>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="4" spans="8:8" ht="14.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>2886</v>
       </c>
@@ -12252,7 +12253,7 @@
       </c>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="5" spans="8:8" ht="14.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>2886</v>
       </c>
@@ -12308,7 +12309,7 @@
       </c>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="6" spans="8:8" ht="14.25" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>2886</v>
       </c>
@@ -12362,7 +12363,7 @@
       </c>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="7" spans="8:8" ht="14.25" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>2886</v>
       </c>
@@ -12416,7 +12417,7 @@
       </c>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="8" spans="8:8" ht="14.25" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>2886</v>
       </c>
@@ -12470,7 +12471,7 @@
       </c>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="9" spans="8:8" ht="14.25" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>2886</v>
       </c>
@@ -12628,7 +12629,7 @@
       </c>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="12" spans="8:8" ht="14.25" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>2886</v>
       </c>
@@ -12780,7 +12781,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="15" spans="8:8" ht="14.25" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>2886</v>
       </c>
@@ -12890,7 +12891,7 @@
       </c>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="17" spans="8:8" ht="14.25" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>2886</v>
       </c>
@@ -12994,7 +12995,7 @@
       </c>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="19" spans="8:8" ht="14.25" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>2886</v>
       </c>
@@ -13048,7 +13049,7 @@
       </c>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="20" spans="8:8" ht="14.25" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>2886</v>
       </c>
@@ -13108,7 +13109,7 @@
       </c>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="21" spans="8:8" ht="14.25" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>2886</v>
       </c>
@@ -13168,7 +13169,7 @@
       </c>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="22" spans="8:8" ht="14.25" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>2886</v>
       </c>
@@ -13282,7 +13283,7 @@
       </c>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="24" spans="8:8" ht="14.25" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>2886</v>
       </c>
@@ -13342,7 +13343,7 @@
       </c>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="25" spans="8:8" ht="14.25" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>2886</v>
       </c>
@@ -13400,7 +13401,7 @@
       </c>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="26" spans="8:8" ht="14.25" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>2886</v>
       </c>
@@ -13454,7 +13455,7 @@
       </c>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="27" spans="8:8" ht="14.25" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>2886</v>
       </c>
@@ -13510,7 +13511,7 @@
       </c>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="28" spans="8:8" ht="14.25" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>2886</v>
       </c>
@@ -13564,7 +13565,7 @@
       </c>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="29" spans="8:8" ht="14.25" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>2886</v>
       </c>
@@ -13622,7 +13623,7 @@
       </c>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="30" spans="8:8" ht="14.25" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>2886</v>
       </c>
@@ -13726,7 +13727,7 @@
       </c>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="32" spans="8:8" ht="14.25" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>2886</v>
       </c>
@@ -13886,7 +13887,7 @@
       </c>
       <c r="T34" s="3"/>
     </row>
-    <row r="35" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="35" spans="8:8" ht="14.25" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>2886</v>
       </c>
@@ -13946,7 +13947,7 @@
       </c>
       <c r="T35" s="3"/>
     </row>
-    <row r="36" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="36" spans="8:8" ht="14.25" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>2886</v>
       </c>
@@ -14056,7 +14057,7 @@
       </c>
       <c r="T37" s="3"/>
     </row>
-    <row r="38" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="38" spans="8:8" ht="14.25" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>2886</v>
       </c>
@@ -14114,7 +14115,7 @@
       </c>
       <c r="T38" s="3"/>
     </row>
-    <row r="39" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="39" spans="8:8" ht="14.25" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>2886</v>
       </c>
@@ -14218,7 +14219,7 @@
       </c>
       <c r="T40" s="3"/>
     </row>
-    <row r="41" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="41" spans="8:8" ht="14.25" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>2886</v>
       </c>
@@ -14328,7 +14329,7 @@
       </c>
       <c r="T42" s="3"/>
     </row>
-    <row r="43" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="43" spans="8:8" ht="14.25" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>2886</v>
       </c>
@@ -14432,7 +14433,7 @@
       </c>
       <c r="T44" s="3"/>
     </row>
-    <row r="45" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="45" spans="8:8" ht="14.25" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>2886</v>
       </c>
@@ -14492,7 +14493,7 @@
       </c>
       <c r="T45" s="3"/>
     </row>
-    <row r="46" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="46" spans="8:8" ht="14.25" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>2886</v>
       </c>
@@ -14606,7 +14607,7 @@
       </c>
       <c r="T47" s="3"/>
     </row>
-    <row r="48" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="48" spans="8:8" ht="14.25" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>2886</v>
       </c>
@@ -14666,7 +14667,7 @@
       </c>
       <c r="T48" s="3"/>
     </row>
-    <row r="49" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="49" spans="8:8" ht="14.25" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>2886</v>
       </c>
@@ -14726,7 +14727,7 @@
       </c>
       <c r="T49" s="3"/>
     </row>
-    <row r="50" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="50" spans="8:8" ht="14.25" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>2886</v>
       </c>
@@ -14784,7 +14785,7 @@
       </c>
       <c r="T50" s="3"/>
     </row>
-    <row r="51" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="51" spans="8:8" ht="14.25" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>2886</v>
       </c>
@@ -14838,7 +14839,7 @@
       </c>
       <c r="T51" s="3"/>
     </row>
-    <row r="52" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="52" spans="8:8" ht="14.25" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>2886</v>
       </c>
@@ -14888,7 +14889,7 @@
       </c>
       <c r="T52" s="3"/>
     </row>
-    <row r="53" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="53" spans="8:8" ht="14.25" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>2886</v>
       </c>
@@ -14944,7 +14945,7 @@
       </c>
       <c r="T53" s="3"/>
     </row>
-    <row r="54" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="54" spans="8:8" ht="14.25" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>2886</v>
       </c>
@@ -15004,7 +15005,7 @@
       </c>
       <c r="T54" s="3"/>
     </row>
-    <row r="55" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="55" spans="8:8" ht="14.25" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>2886</v>
       </c>
@@ -15112,7 +15113,7 @@
       </c>
       <c r="T56" s="3"/>
     </row>
-    <row r="57" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="57" spans="8:8" ht="14.25" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>2886</v>
       </c>
@@ -15166,7 +15167,7 @@
       </c>
       <c r="T57" s="3"/>
     </row>
-    <row r="58" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="58" spans="8:8" ht="14.25" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>2886</v>
       </c>
@@ -15220,7 +15221,7 @@
       </c>
       <c r="T58" s="3"/>
     </row>
-    <row r="59" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="59" spans="8:8" ht="14.25" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>2886</v>
       </c>
@@ -15274,7 +15275,7 @@
       </c>
       <c r="T59" s="3"/>
     </row>
-    <row r="60" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="60" spans="8:8" ht="14.25" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>2886</v>
       </c>
@@ -15328,7 +15329,7 @@
       </c>
       <c r="T60" s="3"/>
     </row>
-    <row r="61" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="61" spans="8:8" ht="14.25" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>2886</v>
       </c>
@@ -15436,7 +15437,7 @@
       </c>
       <c r="T62" s="3"/>
     </row>
-    <row r="63" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="63" spans="8:8" ht="14.25" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>2886</v>
       </c>
@@ -15490,7 +15491,7 @@
       </c>
       <c r="T63" s="3"/>
     </row>
-    <row r="64" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="64" spans="8:8" ht="14.25" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>2886</v>
       </c>
@@ -15548,7 +15549,7 @@
       </c>
       <c r="T64" s="3"/>
     </row>
-    <row r="65" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="65" spans="8:8" ht="14.25" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>2886</v>
       </c>
@@ -15660,7 +15661,7 @@
       </c>
       <c r="T66" s="3"/>
     </row>
-    <row r="67" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="67" spans="8:8" ht="14.25" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>2886</v>
       </c>
@@ -15716,7 +15717,7 @@
       </c>
       <c r="T67" s="3"/>
     </row>
-    <row r="68" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="68" spans="8:8" ht="14.25" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>2886</v>
       </c>
@@ -15772,7 +15773,7 @@
       </c>
       <c r="T68" s="3"/>
     </row>
-    <row r="69" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="69" spans="8:8" ht="14.25" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>2886</v>
       </c>
@@ -15830,7 +15831,7 @@
       </c>
       <c r="T69" s="3"/>
     </row>
-    <row r="70" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="70" spans="8:8" ht="14.25" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>2886</v>
       </c>
@@ -15942,7 +15943,7 @@
       </c>
       <c r="T71" s="3"/>
     </row>
-    <row r="72" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="72" spans="8:8" ht="14.25" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16002,7 +16003,7 @@
       </c>
       <c r="T72" s="3"/>
     </row>
-    <row r="73" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="73" spans="8:8" ht="14.25" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16062,7 +16063,7 @@
       </c>
       <c r="T73" s="3"/>
     </row>
-    <row r="74" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="74" spans="8:8" ht="14.25" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16120,7 +16121,7 @@
       </c>
       <c r="T74" s="3"/>
     </row>
-    <row r="75" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="75" spans="8:8" ht="14.25" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16180,7 +16181,7 @@
       </c>
       <c r="T75" s="3"/>
     </row>
-    <row r="76" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="76" spans="8:8" ht="14.25" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16234,7 +16235,7 @@
       </c>
       <c r="T76" s="3"/>
     </row>
-    <row r="77" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="77" spans="8:8" ht="14.25" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16294,7 +16295,7 @@
       </c>
       <c r="T77" s="3"/>
     </row>
-    <row r="78" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="78" spans="8:8" ht="14.25" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16354,7 +16355,7 @@
       </c>
       <c r="T78" s="3"/>
     </row>
-    <row r="79" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="79" spans="8:8" ht="14.25" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16414,7 +16415,7 @@
       </c>
       <c r="T79" s="3"/>
     </row>
-    <row r="80" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="80" spans="8:8" ht="14.25" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16470,7 +16471,7 @@
       </c>
       <c r="T80" s="3"/>
     </row>
-    <row r="81" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="81" spans="8:8" ht="14.25" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16530,7 +16531,7 @@
       </c>
       <c r="T81" s="3"/>
     </row>
-    <row r="82" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="82" spans="8:8" ht="14.25" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16590,7 +16591,7 @@
       </c>
       <c r="T82" s="3"/>
     </row>
-    <row r="83" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="83" spans="8:8" ht="14.25" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16644,7 +16645,7 @@
       </c>
       <c r="T83" s="3"/>
     </row>
-    <row r="84" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="84" spans="8:8" ht="14.25" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16702,7 +16703,7 @@
       </c>
       <c r="T84" s="3"/>
     </row>
-    <row r="85" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="85" spans="8:8" ht="14.25" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16756,7 +16757,7 @@
       </c>
       <c r="T85" s="3"/>
     </row>
-    <row r="86" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="86" spans="8:8" ht="14.25" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16810,7 +16811,7 @@
       </c>
       <c r="T86" s="3"/>
     </row>
-    <row r="87" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="87" spans="8:8" ht="14.25" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16868,7 +16869,7 @@
       </c>
       <c r="T87" s="3"/>
     </row>
-    <row r="88" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="88" spans="8:8" ht="14.25" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16924,7 +16925,7 @@
       </c>
       <c r="T88" s="3"/>
     </row>
-    <row r="89" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="89" spans="8:8" ht="14.25" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>2886</v>
       </c>
@@ -16978,7 +16979,7 @@
       </c>
       <c r="T89" s="3"/>
     </row>
-    <row r="90" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="90" spans="8:8" ht="14.25" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>2886</v>
       </c>
@@ -17036,7 +17037,7 @@
       </c>
       <c r="T90" s="3"/>
     </row>
-    <row r="91" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="91" spans="8:8" ht="14.25" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>2886</v>
       </c>
@@ -17090,7 +17091,7 @@
       </c>
       <c r="T91" s="3"/>
     </row>
-    <row r="92" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="92" spans="8:8" ht="14.25" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>2886</v>
       </c>
@@ -17150,7 +17151,7 @@
       </c>
       <c r="T92" s="3"/>
     </row>
-    <row r="93" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="93" spans="8:8" ht="14.25" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>2886</v>
       </c>
@@ -17204,7 +17205,7 @@
       </c>
       <c r="T93" s="3"/>
     </row>
-    <row r="94" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="94" spans="8:8" ht="14.25" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>2886</v>
       </c>
@@ -17418,7 +17419,7 @@
       </c>
       <c r="T97" s="3"/>
     </row>
-    <row r="98" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="98" spans="8:8" ht="14.25" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>2886</v>
       </c>
@@ -17522,7 +17523,7 @@
       </c>
       <c r="T99" s="3"/>
     </row>
-    <row r="100" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="100" spans="8:8" ht="14.25" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>2886</v>
       </c>
@@ -17682,7 +17683,7 @@
       </c>
       <c r="T102" s="3"/>
     </row>
-    <row r="103" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="103" spans="8:8" ht="14.25" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>2886</v>
       </c>
@@ -17740,7 +17741,7 @@
       </c>
       <c r="T103" s="3"/>
     </row>
-    <row r="104" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="104" spans="8:8" ht="14.25" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>2886</v>
       </c>
@@ -17846,7 +17847,7 @@
       </c>
       <c r="T105" s="3"/>
     </row>
-    <row r="106" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="106" spans="8:8" ht="14.25" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>2886</v>
       </c>
@@ -17900,7 +17901,7 @@
       </c>
       <c r="T106" s="3"/>
     </row>
-    <row r="107" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="107" spans="8:8" ht="14.25" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>2886</v>
       </c>
@@ -17954,7 +17955,7 @@
       </c>
       <c r="T107" s="3"/>
     </row>
-    <row r="108" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="108" spans="8:8" ht="14.25" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18008,7 +18009,7 @@
       </c>
       <c r="T108" s="3"/>
     </row>
-    <row r="109" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="109" spans="8:8" ht="14.25" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18068,7 +18069,7 @@
       </c>
       <c r="T109" s="3"/>
     </row>
-    <row r="110" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="110" spans="8:8" ht="14.25" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18124,7 +18125,7 @@
       </c>
       <c r="T110" s="3"/>
     </row>
-    <row r="111" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="111" spans="8:8" ht="14.25" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18180,7 +18181,7 @@
       </c>
       <c r="T111" s="3"/>
     </row>
-    <row r="112" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="112" spans="8:8" ht="14.25" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18240,7 +18241,7 @@
       </c>
       <c r="T112" s="3"/>
     </row>
-    <row r="113" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="113" spans="8:8" ht="14.25" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18294,7 +18295,7 @@
       </c>
       <c r="T113" s="3"/>
     </row>
-    <row r="114" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="114" spans="8:8" ht="14.25" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18348,7 +18349,7 @@
       </c>
       <c r="T114" s="3"/>
     </row>
-    <row r="115" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="115" spans="8:8" ht="14.25" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18402,7 +18403,7 @@
       </c>
       <c r="T115" s="3"/>
     </row>
-    <row r="116" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="116" spans="8:8" ht="14.25" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18460,7 +18461,7 @@
       </c>
       <c r="T116" s="3"/>
     </row>
-    <row r="117" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="117" spans="8:8" ht="14.25" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18568,7 +18569,7 @@
       </c>
       <c r="T118" s="3"/>
     </row>
-    <row r="119" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="119" spans="8:8" ht="14.25" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18628,7 +18629,7 @@
       </c>
       <c r="T119" s="3"/>
     </row>
-    <row r="120" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="120" spans="8:8" ht="14.25" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18682,7 +18683,7 @@
       </c>
       <c r="T120" s="3"/>
     </row>
-    <row r="121" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="121" spans="8:8" ht="14.25" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18736,7 +18737,7 @@
       </c>
       <c r="T121" s="3"/>
     </row>
-    <row r="122" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="122" spans="8:8" ht="14.25" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18844,7 +18845,7 @@
       </c>
       <c r="T123" s="3"/>
     </row>
-    <row r="124" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="124" spans="8:8" ht="14.25" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18904,7 +18905,7 @@
       </c>
       <c r="T124" s="3"/>
     </row>
-    <row r="125" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="125" spans="8:8" ht="14.25" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>2886</v>
       </c>
@@ -18964,7 +18965,7 @@
       </c>
       <c r="T125" s="3"/>
     </row>
-    <row r="126" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="126" spans="8:8" ht="14.25" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19068,7 +19069,7 @@
       </c>
       <c r="T127" s="3"/>
     </row>
-    <row r="128" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="128" spans="8:8" ht="14.25" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19122,7 +19123,7 @@
       </c>
       <c r="T128" s="3"/>
     </row>
-    <row r="129" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="129" spans="8:8" ht="14.25" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19182,7 +19183,7 @@
       </c>
       <c r="T129" s="3"/>
     </row>
-    <row r="130" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="130" spans="8:8" ht="14.25" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19236,7 +19237,7 @@
       </c>
       <c r="T130" s="3"/>
     </row>
-    <row r="131" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="131" spans="8:8" ht="14.25" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19290,7 +19291,7 @@
       </c>
       <c r="T131" s="3"/>
     </row>
-    <row r="132" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="132" spans="8:8" ht="14.25" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19346,7 +19347,7 @@
       </c>
       <c r="T132" s="3"/>
     </row>
-    <row r="133" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="133" spans="8:8" ht="14.25" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19400,7 +19401,7 @@
       </c>
       <c r="T133" s="3"/>
     </row>
-    <row r="134" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="134" spans="8:8" ht="14.25" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19456,7 +19457,7 @@
       </c>
       <c r="T134" s="3"/>
     </row>
-    <row r="135" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="135" spans="8:8" ht="14.25" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19562,7 +19563,7 @@
       </c>
       <c r="T136" s="3"/>
     </row>
-    <row r="137" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="137" spans="8:8" ht="14.25" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19620,7 +19621,7 @@
       </c>
       <c r="T137" s="3"/>
     </row>
-    <row r="138" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="138" spans="8:8" ht="14.25" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19676,7 +19677,7 @@
       </c>
       <c r="T138" s="3"/>
     </row>
-    <row r="139" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="139" spans="8:8" ht="14.25" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19730,7 +19731,7 @@
       </c>
       <c r="T139" s="3"/>
     </row>
-    <row r="140" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="140" spans="8:8" ht="14.25" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19786,7 +19787,7 @@
       </c>
       <c r="T140" s="3"/>
     </row>
-    <row r="141" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="141" spans="8:8" ht="14.25" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19844,7 +19845,7 @@
       </c>
       <c r="T141" s="3"/>
     </row>
-    <row r="142" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="142" spans="8:8" ht="14.25" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>2886</v>
       </c>
@@ -19952,7 +19953,7 @@
       </c>
       <c r="T143" s="3"/>
     </row>
-    <row r="144" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="144" spans="8:8" ht="14.25" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>2886</v>
       </c>
@@ -20006,7 +20007,7 @@
       </c>
       <c r="T144" s="3"/>
     </row>
-    <row r="145" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="145" spans="8:8" ht="14.25" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>2886</v>
       </c>
@@ -20064,7 +20065,7 @@
       </c>
       <c r="T145" s="3"/>
     </row>
-    <row r="146" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="146" spans="8:8" ht="14.25" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>2886</v>
       </c>
@@ -20168,7 +20169,7 @@
       </c>
       <c r="T147" s="3"/>
     </row>
-    <row r="148" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="148" spans="8:8" ht="14.25" customHeight="1">
       <c r="A148" s="3" t="s">
         <v>2886</v>
       </c>
@@ -20222,7 +20223,7 @@
       </c>
       <c r="T148" s="3"/>
     </row>
-    <row r="149" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="149" spans="8:8" ht="14.25" customHeight="1">
       <c r="A149" s="3" t="s">
         <v>2886</v>
       </c>
@@ -20282,7 +20283,7 @@
       </c>
       <c r="T149" s="3"/>
     </row>
-    <row r="150" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="150" spans="8:8" ht="14.25" customHeight="1">
       <c r="A150" s="3" t="s">
         <v>2886</v>
       </c>
@@ -20388,7 +20389,7 @@
       </c>
       <c r="T151" s="3"/>
     </row>
-    <row r="152" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="152" spans="8:8" ht="14.25" customHeight="1">
       <c r="A152" s="3" t="s">
         <v>2886</v>
       </c>
@@ -20442,7 +20443,7 @@
       </c>
       <c r="T152" s="3"/>
     </row>
-    <row r="153" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="153" spans="8:8" ht="14.25" customHeight="1">
       <c r="A153" s="3" t="s">
         <v>2886</v>
       </c>
@@ -20496,7 +20497,7 @@
       </c>
       <c r="T153" s="3"/>
     </row>
-    <row r="154" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="154" spans="8:8" ht="14.25" customHeight="1">
       <c r="A154" s="3" t="s">
         <v>2886</v>
       </c>
@@ -20550,7 +20551,7 @@
       </c>
       <c r="T154" s="3"/>
     </row>
-    <row r="155" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="155" spans="8:8" ht="14.25" customHeight="1">
       <c r="A155" s="3" t="s">
         <v>2886</v>
       </c>
@@ -20660,7 +20661,7 @@
       </c>
       <c r="T156" s="3"/>
     </row>
-    <row r="157" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="157" spans="8:8" ht="14.25" customHeight="1">
       <c r="A157" s="3" t="s">
         <v>2886</v>
       </c>
@@ -20714,7 +20715,7 @@
       </c>
       <c r="T157" s="3"/>
     </row>
-    <row r="158" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="158" spans="8:8" ht="14.25" customHeight="1">
       <c r="A158" s="3" t="s">
         <v>2886</v>
       </c>
@@ -20818,7 +20819,7 @@
       </c>
       <c r="T159" s="3"/>
     </row>
-    <row r="160" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="160" spans="8:8" ht="14.25" customHeight="1">
       <c r="A160" s="3" t="s">
         <v>2886</v>
       </c>
@@ -20922,7 +20923,7 @@
       </c>
       <c r="T161" s="3"/>
     </row>
-    <row r="162" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="162" spans="8:8" ht="14.25" customHeight="1">
       <c r="A162" s="3" t="s">
         <v>2886</v>
       </c>
@@ -20976,7 +20977,7 @@
       </c>
       <c r="T162" s="3"/>
     </row>
-    <row r="163" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="163" spans="8:8" ht="14.25" customHeight="1">
       <c r="A163" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21030,7 +21031,7 @@
       </c>
       <c r="T163" s="3"/>
     </row>
-    <row r="164" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="164" spans="8:8" ht="14.25" customHeight="1">
       <c r="A164" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21086,7 +21087,7 @@
       </c>
       <c r="T164" s="3"/>
     </row>
-    <row r="165" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="165" spans="8:8" ht="14.25" customHeight="1">
       <c r="A165" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21142,7 +21143,7 @@
       </c>
       <c r="T165" s="3"/>
     </row>
-    <row r="166" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="166" spans="8:8" ht="14.25" customHeight="1">
       <c r="A166" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21198,7 +21199,7 @@
       </c>
       <c r="T166" s="3"/>
     </row>
-    <row r="167" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="167" spans="8:8" ht="14.25" customHeight="1">
       <c r="A167" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21310,7 +21311,7 @@
       </c>
       <c r="T168" s="3"/>
     </row>
-    <row r="169" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="169" spans="8:8" ht="14.25" customHeight="1">
       <c r="A169" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21368,7 +21369,7 @@
       </c>
       <c r="T169" s="3"/>
     </row>
-    <row r="170" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="170" spans="8:8" ht="14.25" customHeight="1">
       <c r="A170" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21426,7 +21427,7 @@
       </c>
       <c r="T170" s="3"/>
     </row>
-    <row r="171" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="171" spans="8:8" ht="14.25" customHeight="1">
       <c r="A171" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21482,7 +21483,7 @@
       </c>
       <c r="T171" s="3"/>
     </row>
-    <row r="172" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="172" spans="8:8" ht="14.25" customHeight="1">
       <c r="A172" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21536,7 +21537,7 @@
       </c>
       <c r="T172" s="3"/>
     </row>
-    <row r="173" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="173" spans="8:8" ht="14.25" customHeight="1">
       <c r="A173" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21696,7 +21697,7 @@
       </c>
       <c r="T175" s="3"/>
     </row>
-    <row r="176" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="176" spans="8:8" ht="14.25" customHeight="1">
       <c r="A176" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21750,7 +21751,7 @@
       </c>
       <c r="T176" s="3"/>
     </row>
-    <row r="177" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="177" spans="8:8" ht="14.25" customHeight="1">
       <c r="A177" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21804,7 +21805,7 @@
       </c>
       <c r="T177" s="3"/>
     </row>
-    <row r="178" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="178" spans="8:8" ht="14.25" customHeight="1">
       <c r="A178" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21860,7 +21861,7 @@
       </c>
       <c r="T178" s="3"/>
     </row>
-    <row r="179" spans="8:8" s="10" ht="14.25" hidden="1" customFormat="1" customHeight="1">
+    <row r="179" spans="8:8" s="10" ht="14.25" customFormat="1" customHeight="1">
       <c r="A179" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21914,7 +21915,7 @@
       </c>
       <c r="T179" s="3"/>
     </row>
-    <row r="180" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="180" spans="8:8" ht="14.25" customHeight="1">
       <c r="A180" s="3" t="s">
         <v>2886</v>
       </c>
@@ -21972,7 +21973,7 @@
       </c>
       <c r="T180" s="3"/>
     </row>
-    <row r="181" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="181" spans="8:8" ht="14.25" customHeight="1">
       <c r="A181" s="3" t="s">
         <v>2886</v>
       </c>
@@ -22026,7 +22027,7 @@
       </c>
       <c r="T181" s="3"/>
     </row>
-    <row r="182" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="182" spans="8:8" ht="14.25" customHeight="1">
       <c r="A182" s="3" t="s">
         <v>2886</v>
       </c>
@@ -22134,7 +22135,7 @@
       </c>
       <c r="T183" s="3"/>
     </row>
-    <row r="184" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="184" spans="8:8" ht="14.25" customHeight="1">
       <c r="A184" s="3" t="s">
         <v>2886</v>
       </c>
@@ -22244,7 +22245,7 @@
       </c>
       <c r="T185" s="3"/>
     </row>
-    <row r="186" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="186" spans="8:8" ht="14.25" customHeight="1">
       <c r="A186" s="3" t="s">
         <v>2886</v>
       </c>
@@ -22354,7 +22355,7 @@
       </c>
       <c r="T187" s="3"/>
     </row>
-    <row r="188" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="188" spans="8:8" ht="14.25" customHeight="1">
       <c r="A188" s="3" t="s">
         <v>2886</v>
       </c>
@@ -22464,7 +22465,7 @@
       </c>
       <c r="T189" s="3"/>
     </row>
-    <row r="190" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="190" spans="8:8" ht="14.25" customHeight="1">
       <c r="A190" s="3" t="s">
         <v>2886</v>
       </c>
@@ -22522,7 +22523,7 @@
       </c>
       <c r="T190" s="3"/>
     </row>
-    <row r="191" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="191" spans="8:8" ht="14.25" customHeight="1">
       <c r="A191" s="3" t="s">
         <v>2886</v>
       </c>
@@ -22636,7 +22637,7 @@
       </c>
       <c r="T192" s="3"/>
     </row>
-    <row r="193" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="193" spans="8:8" ht="14.25" customHeight="1">
       <c r="A193" s="3" t="s">
         <v>2886</v>
       </c>
@@ -22696,7 +22697,7 @@
       </c>
       <c r="T193" s="3"/>
     </row>
-    <row r="194" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="194" spans="8:8" ht="14.25" customHeight="1">
       <c r="A194" s="3" t="s">
         <v>2886</v>
       </c>
@@ -22756,7 +22757,7 @@
       </c>
       <c r="T194" s="3"/>
     </row>
-    <row r="195" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="195" spans="8:8" ht="14.25" customHeight="1">
       <c r="A195" s="3" t="s">
         <v>2886</v>
       </c>
@@ -22814,7 +22815,7 @@
       </c>
       <c r="T195" s="3"/>
     </row>
-    <row r="196" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="196" spans="8:8" ht="14.25" customHeight="1">
       <c r="A196" s="3" t="s">
         <v>2886</v>
       </c>
@@ -22976,7 +22977,7 @@
       </c>
       <c r="T198" s="3"/>
     </row>
-    <row r="199" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="199" spans="8:8" ht="14.25" customHeight="1">
       <c r="A199" s="3" t="s">
         <v>2886</v>
       </c>
@@ -23034,7 +23035,7 @@
       </c>
       <c r="T199" s="3"/>
     </row>
-    <row r="200" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="200" spans="8:8" ht="14.25" customHeight="1">
       <c r="A200" s="3" t="s">
         <v>2886</v>
       </c>
@@ -23094,7 +23095,7 @@
       </c>
       <c r="T200" s="3"/>
     </row>
-    <row r="201" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="201" spans="8:8" ht="14.25" customHeight="1">
       <c r="A201" s="3" t="s">
         <v>2886</v>
       </c>
@@ -23152,7 +23153,7 @@
       </c>
       <c r="T201" s="3"/>
     </row>
-    <row r="202" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="202" spans="8:8" ht="14.25" customHeight="1">
       <c r="A202" s="3" t="s">
         <v>2913</v>
       </c>
@@ -23210,7 +23211,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="203" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="203" spans="8:8" ht="14.25" customHeight="1">
       <c r="A203" s="3" t="s">
         <v>2913</v>
       </c>
@@ -23268,7 +23269,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="204" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="204" spans="8:8" ht="14.25" customHeight="1">
       <c r="A204" s="3" t="s">
         <v>2913</v>
       </c>
@@ -23328,7 +23329,7 @@
       </c>
       <c r="T204" s="3"/>
     </row>
-    <row r="205" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="205" spans="8:8" ht="14.25" customHeight="1">
       <c r="A205" s="3" t="s">
         <v>2913</v>
       </c>
@@ -23382,7 +23383,7 @@
       </c>
       <c r="T205" s="3"/>
     </row>
-    <row r="206" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="206" spans="8:8" ht="14.25" customHeight="1">
       <c r="A206" s="3" t="s">
         <v>2913</v>
       </c>
@@ -23436,7 +23437,7 @@
       </c>
       <c r="T206" s="3"/>
     </row>
-    <row r="207" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="207" spans="8:8" ht="14.25" customHeight="1">
       <c r="A207" s="3" t="s">
         <v>2913</v>
       </c>
@@ -23492,7 +23493,7 @@
       </c>
       <c r="T207" s="3"/>
     </row>
-    <row r="208" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="208" spans="8:8" ht="14.25" customHeight="1">
       <c r="A208" s="3" t="s">
         <v>2913</v>
       </c>
@@ -23548,7 +23549,7 @@
       </c>
       <c r="T208" s="11"/>
     </row>
-    <row r="209" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="209" spans="8:8" ht="14.25" customHeight="1">
       <c r="A209" s="3" t="s">
         <v>2913</v>
       </c>
@@ -23602,7 +23603,7 @@
       </c>
       <c r="T209" s="3"/>
     </row>
-    <row r="210" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="210" spans="8:8" ht="14.25" customHeight="1">
       <c r="A210" s="3" t="s">
         <v>2913</v>
       </c>
@@ -23656,7 +23657,7 @@
       </c>
       <c r="T210" s="3"/>
     </row>
-    <row r="211" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="211" spans="8:8" ht="14.25" customHeight="1">
       <c r="A211" s="3" t="s">
         <v>2913</v>
       </c>
@@ -23712,7 +23713,7 @@
       </c>
       <c r="T211" s="3"/>
     </row>
-    <row r="212" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="212" spans="8:8" ht="14.25" customHeight="1">
       <c r="A212" s="3" t="s">
         <v>2913</v>
       </c>
@@ -23766,7 +23767,7 @@
       </c>
       <c r="T212" s="11"/>
     </row>
-    <row r="213" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="213" spans="8:8" ht="14.25" customHeight="1">
       <c r="A213" s="3" t="s">
         <v>2913</v>
       </c>
@@ -23824,7 +23825,7 @@
       </c>
       <c r="T213" s="3"/>
     </row>
-    <row r="214" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="214" spans="8:8" ht="14.25" customHeight="1">
       <c r="A214" s="3" t="s">
         <v>2913</v>
       </c>
@@ -23934,7 +23935,7 @@
       </c>
       <c r="T215" s="3"/>
     </row>
-    <row r="216" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="216" spans="8:8" ht="14.25" customHeight="1">
       <c r="A216" s="3" t="s">
         <v>2913</v>
       </c>
@@ -23988,7 +23989,7 @@
       </c>
       <c r="T216" s="3"/>
     </row>
-    <row r="217" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="217" spans="8:8" ht="14.25" customHeight="1">
       <c r="A217" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24044,7 +24045,7 @@
       </c>
       <c r="T217" s="3"/>
     </row>
-    <row r="218" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="218" spans="8:8" ht="14.25" customHeight="1">
       <c r="A218" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24100,7 +24101,7 @@
       </c>
       <c r="T218" s="3"/>
     </row>
-    <row r="219" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="219" spans="8:8" ht="14.25" customHeight="1">
       <c r="A219" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24158,7 +24159,7 @@
       </c>
       <c r="T219" s="3"/>
     </row>
-    <row r="220" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="220" spans="8:8" ht="14.25" customHeight="1">
       <c r="A220" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24214,7 +24215,7 @@
       </c>
       <c r="T220" s="3"/>
     </row>
-    <row r="221" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="221" spans="8:8" ht="14.25" customHeight="1">
       <c r="A221" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24274,7 +24275,7 @@
       </c>
       <c r="T221" s="3"/>
     </row>
-    <row r="222" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="222" spans="8:8" ht="14.25" customHeight="1">
       <c r="A222" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24330,7 +24331,7 @@
       </c>
       <c r="T222" s="3"/>
     </row>
-    <row r="223" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="223" spans="8:8" ht="14.25" customHeight="1">
       <c r="A223" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24386,7 +24387,7 @@
       </c>
       <c r="T223" s="3"/>
     </row>
-    <row r="224" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="224" spans="8:8" ht="14.25" customHeight="1">
       <c r="A224" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24496,7 +24497,7 @@
       </c>
       <c r="T225" s="3"/>
     </row>
-    <row r="226" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="226" spans="8:8" ht="14.25" customHeight="1">
       <c r="A226" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24554,7 +24555,7 @@
       </c>
       <c r="T226" s="11"/>
     </row>
-    <row r="227" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="227" spans="8:8" ht="14.25" customHeight="1">
       <c r="A227" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24612,7 +24613,7 @@
       </c>
       <c r="T227" s="3"/>
     </row>
-    <row r="228" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="228" spans="8:8" ht="14.25" customHeight="1">
       <c r="A228" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24670,7 +24671,7 @@
       </c>
       <c r="T228" s="3"/>
     </row>
-    <row r="229" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="229" spans="8:8" ht="14.25" customHeight="1">
       <c r="A229" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24724,7 +24725,7 @@
       </c>
       <c r="T229" s="3"/>
     </row>
-    <row r="230" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="230" spans="8:8" ht="14.25" customHeight="1">
       <c r="A230" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24782,7 +24783,7 @@
       </c>
       <c r="T230" s="3"/>
     </row>
-    <row r="231" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="231" spans="8:8" ht="14.25" customHeight="1">
       <c r="A231" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24840,7 +24841,7 @@
       </c>
       <c r="T231" s="3"/>
     </row>
-    <row r="232" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="232" spans="8:8" ht="14.25" customHeight="1">
       <c r="A232" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24896,7 +24897,7 @@
       </c>
       <c r="T232" s="3"/>
     </row>
-    <row r="233" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="233" spans="8:8" ht="14.25" customHeight="1">
       <c r="A233" s="3" t="s">
         <v>2913</v>
       </c>
@@ -24952,7 +24953,7 @@
       </c>
       <c r="T233" s="3"/>
     </row>
-    <row r="234" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="234" spans="8:8" ht="14.25" customHeight="1">
       <c r="A234" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25006,7 +25007,7 @@
       </c>
       <c r="T234" s="3"/>
     </row>
-    <row r="235" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="235" spans="8:8" ht="14.25" customHeight="1">
       <c r="A235" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25062,7 +25063,7 @@
       </c>
       <c r="T235" s="3"/>
     </row>
-    <row r="236" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="236" spans="8:8" ht="14.25" customHeight="1">
       <c r="A236" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25118,7 +25119,7 @@
       </c>
       <c r="T236" s="3"/>
     </row>
-    <row r="237" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="237" spans="8:8" ht="14.25" customHeight="1">
       <c r="A237" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25174,7 +25175,7 @@
       </c>
       <c r="T237" s="3"/>
     </row>
-    <row r="238" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="238" spans="8:8" ht="14.25" customHeight="1">
       <c r="A238" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25228,7 +25229,7 @@
       </c>
       <c r="T238" s="3"/>
     </row>
-    <row r="239" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="239" spans="8:8" ht="14.25" customHeight="1">
       <c r="A239" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25282,7 +25283,7 @@
       </c>
       <c r="T239" s="3"/>
     </row>
-    <row r="240" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="240" spans="8:8" ht="14.25" customHeight="1">
       <c r="A240" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25338,7 +25339,7 @@
       </c>
       <c r="T240" s="3"/>
     </row>
-    <row r="241" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="241" spans="8:8" ht="14.25" customHeight="1">
       <c r="A241" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25392,7 +25393,7 @@
       </c>
       <c r="T241" s="3"/>
     </row>
-    <row r="242" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="242" spans="8:8" ht="14.25" customHeight="1">
       <c r="A242" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25446,7 +25447,7 @@
       </c>
       <c r="T242" s="3"/>
     </row>
-    <row r="243" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="243" spans="8:8" ht="14.25" customHeight="1">
       <c r="A243" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25556,7 +25557,7 @@
       </c>
       <c r="T244" s="3"/>
     </row>
-    <row r="245" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="245" spans="8:8" ht="14.25" customHeight="1">
       <c r="A245" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25614,7 +25615,7 @@
       </c>
       <c r="T245" s="3"/>
     </row>
-    <row r="246" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="246" spans="8:8" ht="14.25" customHeight="1">
       <c r="A246" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25672,7 +25673,7 @@
       </c>
       <c r="T246" s="3"/>
     </row>
-    <row r="247" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="247" spans="8:8" ht="14.25" customHeight="1">
       <c r="A247" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25732,7 +25733,7 @@
       </c>
       <c r="T247" s="3"/>
     </row>
-    <row r="248" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="248" spans="8:8" ht="14.25" customHeight="1">
       <c r="A248" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25792,7 +25793,7 @@
       </c>
       <c r="T248" s="3"/>
     </row>
-    <row r="249" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="249" spans="8:8" ht="14.25" customHeight="1">
       <c r="A249" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25852,7 +25853,7 @@
       </c>
       <c r="T249" s="3"/>
     </row>
-    <row r="250" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="250" spans="8:8" ht="14.25" customHeight="1">
       <c r="A250" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25912,7 +25913,7 @@
       </c>
       <c r="T250" s="3"/>
     </row>
-    <row r="251" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="251" spans="8:8" ht="14.25" customHeight="1">
       <c r="A251" s="3" t="s">
         <v>2913</v>
       </c>
@@ -25970,7 +25971,7 @@
       </c>
       <c r="T251" s="3"/>
     </row>
-    <row r="252" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="252" spans="8:8" ht="14.25" customHeight="1">
       <c r="A252" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26026,7 +26027,7 @@
       </c>
       <c r="T252" s="3"/>
     </row>
-    <row r="253" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="253" spans="8:8" ht="14.25" customHeight="1">
       <c r="A253" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26082,7 +26083,7 @@
       </c>
       <c r="T253" s="3"/>
     </row>
-    <row r="254" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="254" spans="8:8" ht="14.25" customHeight="1">
       <c r="A254" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26142,7 +26143,7 @@
       </c>
       <c r="T254" s="3"/>
     </row>
-    <row r="255" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="255" spans="8:8" ht="14.25" customHeight="1">
       <c r="A255" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26196,7 +26197,7 @@
       </c>
       <c r="T255" s="3"/>
     </row>
-    <row r="256" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="256" spans="8:8" ht="14.25" customHeight="1">
       <c r="A256" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26252,7 +26253,7 @@
       </c>
       <c r="T256" s="3"/>
     </row>
-    <row r="257" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="257" spans="8:8" ht="14.25" customHeight="1">
       <c r="A257" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26312,7 +26313,7 @@
       </c>
       <c r="T257" s="3"/>
     </row>
-    <row r="258" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="258" spans="8:8" ht="14.25" customHeight="1">
       <c r="A258" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26372,7 +26373,7 @@
       </c>
       <c r="T258" s="3"/>
     </row>
-    <row r="259" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="259" spans="8:8" ht="14.25" customHeight="1">
       <c r="A259" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26432,7 +26433,7 @@
       </c>
       <c r="T259" s="3"/>
     </row>
-    <row r="260" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="260" spans="8:8" ht="14.25" customHeight="1">
       <c r="A260" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26492,7 +26493,7 @@
       </c>
       <c r="T260" s="3"/>
     </row>
-    <row r="261" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="261" spans="8:8" ht="14.25" customHeight="1">
       <c r="A261" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26548,7 +26549,7 @@
       </c>
       <c r="T261" s="3"/>
     </row>
-    <row r="262" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="262" spans="8:8" ht="14.25" customHeight="1">
       <c r="A262" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26604,7 +26605,7 @@
       </c>
       <c r="T262" s="3"/>
     </row>
-    <row r="263" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="263" spans="8:8" ht="14.25" customHeight="1">
       <c r="A263" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26658,7 +26659,7 @@
       </c>
       <c r="T263" s="3"/>
     </row>
-    <row r="264" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="264" spans="8:8" ht="14.25" customHeight="1">
       <c r="A264" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26714,7 +26715,7 @@
       </c>
       <c r="T264" s="3"/>
     </row>
-    <row r="265" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="265" spans="8:8" ht="14.25" customHeight="1">
       <c r="A265" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26768,7 +26769,7 @@
       </c>
       <c r="T265" s="3"/>
     </row>
-    <row r="266" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="266" spans="8:8" ht="14.25" customHeight="1">
       <c r="A266" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26824,7 +26825,7 @@
       </c>
       <c r="T266" s="3"/>
     </row>
-    <row r="267" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="267" spans="8:8" ht="14.25" customHeight="1">
       <c r="A267" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26884,7 +26885,7 @@
       </c>
       <c r="T267" s="3"/>
     </row>
-    <row r="268" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="268" spans="8:8" ht="14.25" customHeight="1">
       <c r="A268" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26940,7 +26941,7 @@
       </c>
       <c r="T268" s="3"/>
     </row>
-    <row r="269" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="269" spans="8:8" ht="14.25" customHeight="1">
       <c r="A269" s="3" t="s">
         <v>2913</v>
       </c>
@@ -26994,7 +26995,7 @@
       </c>
       <c r="T269" s="3"/>
     </row>
-    <row r="270" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="270" spans="8:8" ht="14.25" customHeight="1">
       <c r="A270" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27050,7 +27051,7 @@
       </c>
       <c r="T270" s="3"/>
     </row>
-    <row r="271" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="271" spans="8:8" ht="14.25" customHeight="1">
       <c r="A271" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27106,7 +27107,7 @@
       </c>
       <c r="T271" s="3"/>
     </row>
-    <row r="272" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="272" spans="8:8" ht="14.25" customHeight="1">
       <c r="A272" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27162,7 +27163,7 @@
       </c>
       <c r="T272" s="3"/>
     </row>
-    <row r="273" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="273" spans="8:8" ht="14.25" customHeight="1">
       <c r="A273" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27218,7 +27219,7 @@
       </c>
       <c r="T273" s="3"/>
     </row>
-    <row r="274" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="274" spans="8:8" ht="14.25" customHeight="1">
       <c r="A274" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27272,7 +27273,7 @@
       </c>
       <c r="T274" s="3"/>
     </row>
-    <row r="275" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="275" spans="8:8" ht="14.25" customHeight="1">
       <c r="A275" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27328,7 +27329,7 @@
       </c>
       <c r="T275" s="3"/>
     </row>
-    <row r="276" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="276" spans="8:8" ht="14.25" customHeight="1">
       <c r="A276" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27384,7 +27385,7 @@
       </c>
       <c r="T276" s="3"/>
     </row>
-    <row r="277" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="277" spans="8:8" ht="14.25" customHeight="1">
       <c r="A277" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27490,7 +27491,7 @@
       </c>
       <c r="T278" s="3"/>
     </row>
-    <row r="279" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="279" spans="8:8" ht="14.25" customHeight="1">
       <c r="A279" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27546,7 +27547,7 @@
       </c>
       <c r="T279" s="3"/>
     </row>
-    <row r="280" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="280" spans="8:8" ht="14.25" customHeight="1">
       <c r="A280" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27602,7 +27603,7 @@
       </c>
       <c r="T280" s="3"/>
     </row>
-    <row r="281" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="281" spans="8:8" ht="14.25" customHeight="1">
       <c r="A281" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27658,7 +27659,7 @@
       </c>
       <c r="T281" s="3"/>
     </row>
-    <row r="282" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="282" spans="8:8" ht="14.25" customHeight="1">
       <c r="A282" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27714,7 +27715,7 @@
       </c>
       <c r="T282" s="3"/>
     </row>
-    <row r="283" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="283" spans="8:8" ht="14.25" customHeight="1">
       <c r="A283" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27770,7 +27771,7 @@
       </c>
       <c r="T283" s="3"/>
     </row>
-    <row r="284" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="284" spans="8:8" ht="14.25" customHeight="1">
       <c r="A284" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27826,7 +27827,7 @@
       </c>
       <c r="T284" s="3"/>
     </row>
-    <row r="285" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="285" spans="8:8" ht="14.25" customHeight="1">
       <c r="A285" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27882,7 +27883,7 @@
       </c>
       <c r="T285" s="3"/>
     </row>
-    <row r="286" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="286" spans="8:8" ht="14.25" customHeight="1">
       <c r="A286" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27936,7 +27937,7 @@
       </c>
       <c r="T286" s="3"/>
     </row>
-    <row r="287" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="287" spans="8:8" ht="14.25" customHeight="1">
       <c r="A287" s="3" t="s">
         <v>2913</v>
       </c>
@@ -27994,7 +27995,7 @@
       </c>
       <c r="T287" s="3"/>
     </row>
-    <row r="288" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="288" spans="8:8" ht="14.25" customHeight="1">
       <c r="A288" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28054,7 +28055,7 @@
       </c>
       <c r="T288" s="3"/>
     </row>
-    <row r="289" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="289" spans="8:8" ht="14.25" customHeight="1">
       <c r="A289" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28164,7 +28165,7 @@
       </c>
       <c r="T290" s="3"/>
     </row>
-    <row r="291" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="291" spans="8:8" ht="14.25" customHeight="1">
       <c r="A291" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28224,7 +28225,7 @@
       </c>
       <c r="T291" s="3"/>
     </row>
-    <row r="292" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="292" spans="8:8" ht="14.25" customHeight="1">
       <c r="A292" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28280,7 +28281,7 @@
       </c>
       <c r="T292" s="3"/>
     </row>
-    <row r="293" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="293" spans="8:8" ht="14.25" customHeight="1">
       <c r="A293" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28340,7 +28341,7 @@
       </c>
       <c r="T293" s="3"/>
     </row>
-    <row r="294" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="294" spans="8:8" ht="14.25" customHeight="1">
       <c r="A294" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28394,7 +28395,7 @@
       </c>
       <c r="T294" s="3"/>
     </row>
-    <row r="295" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="295" spans="8:8" ht="14.25" customHeight="1">
       <c r="A295" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28450,7 +28451,7 @@
       </c>
       <c r="T295" s="3"/>
     </row>
-    <row r="296" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="296" spans="8:8" ht="14.25" customHeight="1">
       <c r="A296" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28510,7 +28511,7 @@
       </c>
       <c r="T296" s="3"/>
     </row>
-    <row r="297" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="297" spans="8:8" ht="14.25" customHeight="1">
       <c r="A297" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28564,7 +28565,7 @@
       </c>
       <c r="T297" s="3"/>
     </row>
-    <row r="298" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="298" spans="8:8" ht="14.25" customHeight="1">
       <c r="A298" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28618,7 +28619,7 @@
       </c>
       <c r="T298" s="3"/>
     </row>
-    <row r="299" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="299" spans="8:8" ht="14.25" customHeight="1">
       <c r="A299" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28672,7 +28673,7 @@
       </c>
       <c r="T299" s="3"/>
     </row>
-    <row r="300" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="300" spans="8:8" ht="14.25" customHeight="1">
       <c r="A300" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28726,7 +28727,7 @@
       </c>
       <c r="T300" s="3"/>
     </row>
-    <row r="301" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="301" spans="8:8" ht="14.25" customHeight="1">
       <c r="A301" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28780,7 +28781,7 @@
       </c>
       <c r="T301" s="3"/>
     </row>
-    <row r="302" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="302" spans="8:8" ht="14.25" customHeight="1">
       <c r="A302" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28836,7 +28837,7 @@
       </c>
       <c r="T302" s="3"/>
     </row>
-    <row r="303" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="303" spans="8:8" ht="14.25" customHeight="1">
       <c r="A303" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28890,7 +28891,7 @@
       </c>
       <c r="T303" s="3"/>
     </row>
-    <row r="304" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="304" spans="8:8" ht="14.25" customHeight="1">
       <c r="A304" s="3" t="s">
         <v>2913</v>
       </c>
@@ -28946,7 +28947,7 @@
       </c>
       <c r="T304" s="3"/>
     </row>
-    <row r="305" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="305" spans="8:8" ht="14.25" customHeight="1">
       <c r="A305" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29002,7 +29003,7 @@
       </c>
       <c r="T305" s="3"/>
     </row>
-    <row r="306" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="306" spans="8:8" ht="14.25" customHeight="1">
       <c r="A306" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29058,7 +29059,7 @@
       </c>
       <c r="T306" s="3"/>
     </row>
-    <row r="307" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="307" spans="8:8" ht="14.25" customHeight="1">
       <c r="A307" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29162,7 +29163,7 @@
       </c>
       <c r="T308" s="3"/>
     </row>
-    <row r="309" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="309" spans="8:8" ht="14.25" customHeight="1">
       <c r="A309" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29216,7 +29217,7 @@
       </c>
       <c r="T309" s="3"/>
     </row>
-    <row r="310" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="310" spans="8:8" ht="14.25" customHeight="1">
       <c r="A310" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29270,7 +29271,7 @@
       </c>
       <c r="T310" s="3"/>
     </row>
-    <row r="311" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="311" spans="8:8" ht="14.25" customHeight="1">
       <c r="A311" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29324,7 +29325,7 @@
       </c>
       <c r="T311" s="3"/>
     </row>
-    <row r="312" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="312" spans="8:8" ht="14.25" customHeight="1">
       <c r="A312" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29382,7 +29383,7 @@
       </c>
       <c r="T312" s="3"/>
     </row>
-    <row r="313" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="313" spans="8:8" ht="14.25" customHeight="1">
       <c r="A313" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29442,7 +29443,7 @@
       </c>
       <c r="T313" s="3"/>
     </row>
-    <row r="314" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="314" spans="8:8" ht="14.25" customHeight="1">
       <c r="A314" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29498,7 +29499,7 @@
       </c>
       <c r="T314" s="3"/>
     </row>
-    <row r="315" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="315" spans="8:8" ht="14.25" customHeight="1">
       <c r="A315" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29552,7 +29553,7 @@
       </c>
       <c r="T315" s="3"/>
     </row>
-    <row r="316" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="316" spans="8:8" ht="14.25" customHeight="1">
       <c r="A316" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29660,7 +29661,7 @@
       </c>
       <c r="T317" s="3"/>
     </row>
-    <row r="318" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="318" spans="8:8" ht="14.25" customHeight="1">
       <c r="A318" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29716,7 +29717,7 @@
       </c>
       <c r="T318" s="3"/>
     </row>
-    <row r="319" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="319" spans="8:8" ht="14.25" customHeight="1">
       <c r="A319" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29776,7 +29777,7 @@
       </c>
       <c r="T319" s="3"/>
     </row>
-    <row r="320" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="320" spans="8:8" ht="14.25" customHeight="1">
       <c r="A320" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29884,7 +29885,7 @@
       </c>
       <c r="T321" s="3"/>
     </row>
-    <row r="322" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="322" spans="8:8" ht="14.25" customHeight="1">
       <c r="A322" s="3" t="s">
         <v>2913</v>
       </c>
@@ -29940,7 +29941,7 @@
       </c>
       <c r="T322" s="3"/>
     </row>
-    <row r="323" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="323" spans="8:8" ht="14.25" customHeight="1">
       <c r="A323" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30044,7 +30045,7 @@
       </c>
       <c r="T324" s="3"/>
     </row>
-    <row r="325" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="325" spans="8:8" ht="14.25" customHeight="1">
       <c r="A325" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30102,7 +30103,7 @@
       </c>
       <c r="T325" s="3"/>
     </row>
-    <row r="326" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="326" spans="8:8" ht="14.25" customHeight="1">
       <c r="A326" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30156,7 +30157,7 @@
       </c>
       <c r="T326" s="3"/>
     </row>
-    <row r="327" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="327" spans="8:8" ht="14.25" customHeight="1">
       <c r="A327" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30210,7 +30211,7 @@
       </c>
       <c r="T327" s="3"/>
     </row>
-    <row r="328" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="328" spans="8:8" ht="14.25" customHeight="1">
       <c r="A328" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30264,7 +30265,7 @@
       </c>
       <c r="T328" s="3"/>
     </row>
-    <row r="329" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="329" spans="8:8" ht="14.25" customHeight="1">
       <c r="A329" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30318,7 +30319,7 @@
       </c>
       <c r="T329" s="3"/>
     </row>
-    <row r="330" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="330" spans="8:8" ht="14.25" customHeight="1">
       <c r="A330" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30374,7 +30375,7 @@
       </c>
       <c r="T330" s="3"/>
     </row>
-    <row r="331" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="331" spans="8:8" ht="14.25" customHeight="1">
       <c r="A331" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30434,7 +30435,7 @@
       </c>
       <c r="T331" s="3"/>
     </row>
-    <row r="332" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="332" spans="8:8" ht="14.25" customHeight="1">
       <c r="A332" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30488,7 +30489,7 @@
       </c>
       <c r="T332" s="3"/>
     </row>
-    <row r="333" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="333" spans="8:8" ht="14.25" customHeight="1">
       <c r="A333" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30598,7 +30599,7 @@
       </c>
       <c r="T334" s="3"/>
     </row>
-    <row r="335" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="335" spans="8:8" ht="14.25" customHeight="1">
       <c r="A335" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30652,7 +30653,7 @@
       </c>
       <c r="T335" s="3"/>
     </row>
-    <row r="336" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="336" spans="8:8" ht="14.25" customHeight="1">
       <c r="A336" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30706,7 +30707,7 @@
       </c>
       <c r="T336" s="3"/>
     </row>
-    <row r="337" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="337" spans="8:8" ht="14.25" customHeight="1">
       <c r="A337" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30766,7 +30767,7 @@
       </c>
       <c r="T337" s="3"/>
     </row>
-    <row r="338" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="338" spans="8:8" ht="14.25" customHeight="1">
       <c r="A338" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30820,7 +30821,7 @@
       </c>
       <c r="T338" s="3"/>
     </row>
-    <row r="339" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="339" spans="8:8" ht="14.25" customHeight="1">
       <c r="A339" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30874,7 +30875,7 @@
       </c>
       <c r="T339" s="3"/>
     </row>
-    <row r="340" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="340" spans="8:8" ht="14.25" customHeight="1">
       <c r="A340" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30928,7 +30929,7 @@
       </c>
       <c r="T340" s="3"/>
     </row>
-    <row r="341" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="341" spans="8:8" ht="14.25" customHeight="1">
       <c r="A341" s="3" t="s">
         <v>2913</v>
       </c>
@@ -30982,7 +30983,7 @@
       </c>
       <c r="T341" s="3"/>
     </row>
-    <row r="342" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="342" spans="8:8" ht="14.25" customHeight="1">
       <c r="A342" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31036,7 +31037,7 @@
       </c>
       <c r="T342" s="3"/>
     </row>
-    <row r="343" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="343" spans="8:8" ht="14.25" customHeight="1">
       <c r="A343" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31090,7 +31091,7 @@
       </c>
       <c r="T343" s="3"/>
     </row>
-    <row r="344" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="344" spans="8:8" ht="14.25" customHeight="1">
       <c r="A344" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31144,7 +31145,7 @@
       </c>
       <c r="T344" s="3"/>
     </row>
-    <row r="345" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="345" spans="8:8" ht="14.25" customHeight="1">
       <c r="A345" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31198,7 +31199,7 @@
       </c>
       <c r="T345" s="3"/>
     </row>
-    <row r="346" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="346" spans="8:8" ht="14.25" customHeight="1">
       <c r="A346" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31256,7 +31257,7 @@
       </c>
       <c r="T346" s="3"/>
     </row>
-    <row r="347" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="347" spans="8:8" ht="14.25" customHeight="1">
       <c r="A347" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31310,7 +31311,7 @@
       </c>
       <c r="T347" s="3"/>
     </row>
-    <row r="348" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="348" spans="8:8" ht="14.25" customHeight="1">
       <c r="A348" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31368,7 +31369,7 @@
       </c>
       <c r="T348" s="3"/>
     </row>
-    <row r="349" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="349" spans="8:8" ht="14.25" customHeight="1">
       <c r="A349" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31426,7 +31427,7 @@
       </c>
       <c r="T349" s="3"/>
     </row>
-    <row r="350" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="350" spans="8:8" ht="14.25" customHeight="1">
       <c r="A350" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31484,7 +31485,7 @@
       </c>
       <c r="T350" s="3"/>
     </row>
-    <row r="351" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="351" spans="8:8" ht="14.25" customHeight="1">
       <c r="A351" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31540,7 +31541,7 @@
       </c>
       <c r="T351" s="3"/>
     </row>
-    <row r="352" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="352" spans="8:8" ht="14.25" customHeight="1">
       <c r="A352" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31644,7 +31645,7 @@
       </c>
       <c r="T353" s="3"/>
     </row>
-    <row r="354" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="354" spans="8:8" ht="14.25" customHeight="1">
       <c r="A354" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31698,7 +31699,7 @@
       </c>
       <c r="T354" s="3"/>
     </row>
-    <row r="355" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="355" spans="8:8" ht="14.25" customHeight="1">
       <c r="A355" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31752,7 +31753,7 @@
       </c>
       <c r="T355" s="3"/>
     </row>
-    <row r="356" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="356" spans="8:8" ht="14.25" customHeight="1">
       <c r="A356" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31906,7 +31907,7 @@
       </c>
       <c r="T358" s="3"/>
     </row>
-    <row r="359" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="359" spans="8:8" ht="14.25" customHeight="1">
       <c r="A359" s="3" t="s">
         <v>2913</v>
       </c>
@@ -31966,7 +31967,7 @@
       </c>
       <c r="T359" s="3"/>
     </row>
-    <row r="360" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="360" spans="8:8" ht="14.25" customHeight="1">
       <c r="A360" s="3" t="s">
         <v>2913</v>
       </c>
@@ -32126,7 +32127,7 @@
       </c>
       <c r="T362" s="3"/>
     </row>
-    <row r="363" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="363" spans="8:8" ht="14.25" customHeight="1">
       <c r="A363" s="3" t="s">
         <v>2913</v>
       </c>
@@ -32230,7 +32231,7 @@
       </c>
       <c r="T364" s="3"/>
     </row>
-    <row r="365" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="365" spans="8:8" ht="14.25" customHeight="1">
       <c r="A365" s="3" t="s">
         <v>2913</v>
       </c>
@@ -32290,7 +32291,7 @@
       </c>
       <c r="T365" s="3"/>
     </row>
-    <row r="366" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="366" spans="8:8" ht="14.25" customHeight="1">
       <c r="A366" s="3" t="s">
         <v>2913</v>
       </c>
@@ -32348,7 +32349,7 @@
       </c>
       <c r="T366" s="3"/>
     </row>
-    <row r="367" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="367" spans="8:8" ht="14.25" customHeight="1">
       <c r="A367" s="3" t="s">
         <v>2913</v>
       </c>
@@ -32406,7 +32407,7 @@
       </c>
       <c r="T367" s="3"/>
     </row>
-    <row r="368" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="368" spans="8:8" ht="14.25" customHeight="1">
       <c r="A368" s="3" t="s">
         <v>2913</v>
       </c>
@@ -32460,7 +32461,7 @@
       </c>
       <c r="T368" s="3"/>
     </row>
-    <row r="369" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="369" spans="8:8" ht="14.25" customHeight="1">
       <c r="A369" s="3" t="s">
         <v>2913</v>
       </c>
@@ -32518,7 +32519,7 @@
       </c>
       <c r="T369" s="3"/>
     </row>
-    <row r="370" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="370" spans="8:8" ht="14.25" customHeight="1">
       <c r="A370" s="3" t="s">
         <v>2913</v>
       </c>
@@ -32576,7 +32577,7 @@
       </c>
       <c r="T370" s="3"/>
     </row>
-    <row r="371" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="371" spans="8:8" ht="14.25" customHeight="1">
       <c r="A371" s="3" t="s">
         <v>2913</v>
       </c>
@@ -32636,7 +32637,7 @@
       </c>
       <c r="T371" s="3"/>
     </row>
-    <row r="372" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="372" spans="8:8" ht="14.25" customHeight="1">
       <c r="A372" s="3" t="s">
         <v>2913</v>
       </c>
@@ -32690,7 +32691,7 @@
       </c>
       <c r="T372" s="3"/>
     </row>
-    <row r="373" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="373" spans="8:8" ht="14.25" customHeight="1">
       <c r="A373" s="3" t="s">
         <v>2913</v>
       </c>
@@ -32748,7 +32749,7 @@
       </c>
       <c r="T373" s="3"/>
     </row>
-    <row r="374" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="374" spans="8:8" ht="14.25" customHeight="1">
       <c r="A374" s="3" t="s">
         <v>2913</v>
       </c>
@@ -32952,7 +32953,7 @@
       </c>
       <c r="T377" s="3"/>
     </row>
-    <row r="378" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="378" spans="8:8" ht="14.25" customHeight="1">
       <c r="A378" s="3" t="s">
         <v>2913</v>
       </c>
@@ -33108,7 +33109,7 @@
       </c>
       <c r="T380" s="3"/>
     </row>
-    <row r="381" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="381" spans="8:8" ht="14.25" customHeight="1">
       <c r="A381" s="3" t="s">
         <v>2913</v>
       </c>
@@ -33162,7 +33163,7 @@
       <c r="S381" s="3"/>
       <c r="T381" s="3"/>
     </row>
-    <row r="382" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="382" spans="8:8" ht="14.25" customHeight="1">
       <c r="A382" s="3" t="s">
         <v>2913</v>
       </c>
@@ -33324,7 +33325,7 @@
       </c>
       <c r="T384" s="3"/>
     </row>
-    <row r="385" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="385" spans="8:8" ht="14.25" customHeight="1">
       <c r="A385" s="3" t="s">
         <v>2913</v>
       </c>
@@ -33378,7 +33379,7 @@
       </c>
       <c r="T385" s="3"/>
     </row>
-    <row r="386" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="386" spans="8:8" ht="14.25" customHeight="1">
       <c r="A386" s="3" t="s">
         <v>2913</v>
       </c>
@@ -33432,7 +33433,7 @@
       </c>
       <c r="T386" s="3"/>
     </row>
-    <row r="387" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="387" spans="8:8" ht="14.25" customHeight="1">
       <c r="A387" s="3" t="s">
         <v>2913</v>
       </c>
@@ -33486,7 +33487,7 @@
       </c>
       <c r="T387" s="3"/>
     </row>
-    <row r="388" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="388" spans="8:8" ht="14.25" customHeight="1">
       <c r="A388" s="3" t="s">
         <v>2913</v>
       </c>
@@ -33542,7 +33543,7 @@
       </c>
       <c r="T388" s="3"/>
     </row>
-    <row r="389" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="389" spans="8:8" ht="14.25" customHeight="1">
       <c r="A389" s="3" t="s">
         <v>2913</v>
       </c>
@@ -33648,7 +33649,7 @@
       </c>
       <c r="T390" s="3"/>
     </row>
-    <row r="391" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="391" spans="8:8" ht="14.25" customHeight="1">
       <c r="A391" s="3" t="s">
         <v>2913</v>
       </c>
@@ -33704,7 +33705,7 @@
       </c>
       <c r="T391" s="3"/>
     </row>
-    <row r="392" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="392" spans="8:8" ht="14.25" customHeight="1">
       <c r="A392" s="3" t="s">
         <v>2913</v>
       </c>
@@ -33760,7 +33761,7 @@
       </c>
       <c r="T392" s="3"/>
     </row>
-    <row r="393" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="393" spans="8:8" ht="14.25" customHeight="1">
       <c r="A393" s="3" t="s">
         <v>2913</v>
       </c>
@@ -33874,7 +33875,7 @@
       </c>
       <c r="T394" s="3"/>
     </row>
-    <row r="395" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="395" spans="8:8" ht="14.25" customHeight="1">
       <c r="A395" s="3" t="s">
         <v>2913</v>
       </c>
@@ -33928,7 +33929,7 @@
       </c>
       <c r="T395" s="3"/>
     </row>
-    <row r="396" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="396" spans="8:8" ht="14.25" customHeight="1">
       <c r="A396" s="3" t="s">
         <v>2913</v>
       </c>
@@ -33986,7 +33987,7 @@
       </c>
       <c r="T396" s="3"/>
     </row>
-    <row r="397" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="397" spans="8:8" ht="14.25" customHeight="1">
       <c r="A397" s="3" t="s">
         <v>2913</v>
       </c>
@@ -34086,7 +34087,7 @@
       </c>
       <c r="T398" s="3"/>
     </row>
-    <row r="399" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="399" spans="8:8" ht="14.25" customHeight="1">
       <c r="A399" s="3" t="s">
         <v>2913</v>
       </c>
@@ -34146,7 +34147,7 @@
       </c>
       <c r="T399" s="3"/>
     </row>
-    <row r="400" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="400" spans="8:8" ht="14.25" customHeight="1">
       <c r="A400" s="3" t="s">
         <v>2913</v>
       </c>
@@ -34254,7 +34255,7 @@
       </c>
       <c r="T401" s="3"/>
     </row>
-    <row r="402" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="402" spans="8:8" ht="14.25" customHeight="1">
       <c r="A402" s="3" t="s">
         <v>2922</v>
       </c>
@@ -34308,7 +34309,7 @@
       </c>
       <c r="T402" s="3"/>
     </row>
-    <row r="403" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="403" spans="8:8" ht="14.25" customHeight="1">
       <c r="A403" s="3" t="s">
         <v>2922</v>
       </c>
@@ -34362,7 +34363,7 @@
       </c>
       <c r="T403" s="3"/>
     </row>
-    <row r="404" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="404" spans="8:8" ht="14.25" customHeight="1">
       <c r="A404" s="3" t="s">
         <v>2922</v>
       </c>
@@ -34418,7 +34419,7 @@
       </c>
       <c r="T404" s="3"/>
     </row>
-    <row r="405" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="405" spans="8:8" ht="14.25" customHeight="1">
       <c r="A405" s="3" t="s">
         <v>2922</v>
       </c>
@@ -34472,7 +34473,7 @@
       </c>
       <c r="T405" s="3"/>
     </row>
-    <row r="406" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="406" spans="8:8" ht="14.25" customHeight="1">
       <c r="A406" s="3" t="s">
         <v>2922</v>
       </c>
@@ -34526,7 +34527,7 @@
       </c>
       <c r="T406" s="3"/>
     </row>
-    <row r="407" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="407" spans="8:8" ht="14.25" customHeight="1">
       <c r="A407" s="3" t="s">
         <v>2922</v>
       </c>
@@ -34580,7 +34581,7 @@
       </c>
       <c r="T407" s="3"/>
     </row>
-    <row r="408" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="408" spans="8:8" ht="14.25" customHeight="1">
       <c r="A408" s="3" t="s">
         <v>2922</v>
       </c>
@@ -34638,7 +34639,7 @@
       </c>
       <c r="T408" s="3"/>
     </row>
-    <row r="409" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="409" spans="8:8" ht="14.25" customHeight="1">
       <c r="A409" s="3" t="s">
         <v>2922</v>
       </c>
@@ -34694,7 +34695,7 @@
       </c>
       <c r="T409" s="3"/>
     </row>
-    <row r="410" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="410" spans="8:8" ht="14.25" customHeight="1">
       <c r="A410" s="3" t="s">
         <v>2922</v>
       </c>
@@ -34754,7 +34755,7 @@
       </c>
       <c r="T410" s="3"/>
     </row>
-    <row r="411" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="411" spans="8:8" ht="14.25" customHeight="1">
       <c r="A411" s="3" t="s">
         <v>2922</v>
       </c>
@@ -34808,7 +34809,7 @@
       </c>
       <c r="T411" s="3"/>
     </row>
-    <row r="412" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="412" spans="8:8" ht="14.25" customHeight="1">
       <c r="A412" s="3" t="s">
         <v>2922</v>
       </c>
@@ -34862,7 +34863,7 @@
       </c>
       <c r="T412" s="3"/>
     </row>
-    <row r="413" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="413" spans="8:8" ht="14.25" customHeight="1">
       <c r="A413" s="3" t="s">
         <v>2922</v>
       </c>
@@ -34920,7 +34921,7 @@
       </c>
       <c r="T413" s="3"/>
     </row>
-    <row r="414" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="414" spans="8:8" ht="14.25" customHeight="1">
       <c r="A414" s="3" t="s">
         <v>2922</v>
       </c>
@@ -34974,7 +34975,7 @@
       </c>
       <c r="T414" s="3"/>
     </row>
-    <row r="415" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="415" spans="8:8" ht="14.25" customHeight="1">
       <c r="A415" s="3" t="s">
         <v>2922</v>
       </c>
@@ -35028,7 +35029,7 @@
       </c>
       <c r="T415" s="3"/>
     </row>
-    <row r="416" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="416" spans="8:8" ht="14.25" customHeight="1">
       <c r="A416" s="3" t="s">
         <v>2922</v>
       </c>
@@ -35084,7 +35085,7 @@
       </c>
       <c r="T416" s="3"/>
     </row>
-    <row r="417" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="417" spans="8:8" ht="14.25" customHeight="1">
       <c r="A417" s="3" t="s">
         <v>2922</v>
       </c>
@@ -35138,7 +35139,7 @@
       </c>
       <c r="T417" s="3"/>
     </row>
-    <row r="418" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="418" spans="8:8" ht="14.25" customHeight="1">
       <c r="A418" s="3" t="s">
         <v>2922</v>
       </c>
@@ -35198,7 +35199,7 @@
       </c>
       <c r="T418" s="3"/>
     </row>
-    <row r="419" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="419" spans="8:8" ht="14.25" customHeight="1">
       <c r="A419" s="3" t="s">
         <v>2922</v>
       </c>
@@ -35254,7 +35255,7 @@
       </c>
       <c r="T419" s="3"/>
     </row>
-    <row r="420" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="420" spans="8:8" ht="14.25" customHeight="1">
       <c r="A420" s="3" t="s">
         <v>2922</v>
       </c>
@@ -35308,7 +35309,7 @@
       </c>
       <c r="T420" s="3"/>
     </row>
-    <row r="421" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="421" spans="8:8" ht="14.25" customHeight="1">
       <c r="A421" s="3" t="s">
         <v>2922</v>
       </c>
@@ -35412,7 +35413,7 @@
       </c>
       <c r="T422" s="3"/>
     </row>
-    <row r="423" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="423" spans="8:8" ht="14.25" customHeight="1">
       <c r="A423" s="3" t="s">
         <v>2922</v>
       </c>
@@ -35568,7 +35569,7 @@
       </c>
       <c r="T425" s="3"/>
     </row>
-    <row r="426" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="426" spans="8:8" ht="14.25" customHeight="1">
       <c r="A426" s="3" t="s">
         <v>2922</v>
       </c>
@@ -35676,7 +35677,7 @@
       </c>
       <c r="T427" s="3"/>
     </row>
-    <row r="428" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="428" spans="8:8" ht="14.25" customHeight="1">
       <c r="A428" s="3" t="s">
         <v>2922</v>
       </c>
@@ -35736,7 +35737,7 @@
       </c>
       <c r="T428" s="3"/>
     </row>
-    <row r="429" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="429" spans="8:8" ht="14.25" customHeight="1">
       <c r="A429" s="3" t="s">
         <v>2922</v>
       </c>
@@ -35790,7 +35791,7 @@
       </c>
       <c r="T429" s="3"/>
     </row>
-    <row r="430" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="430" spans="8:8" ht="14.25" customHeight="1">
       <c r="A430" s="3" t="s">
         <v>2922</v>
       </c>
@@ -35844,7 +35845,7 @@
       </c>
       <c r="T430" s="3"/>
     </row>
-    <row r="431" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="431" spans="8:8" ht="14.25" customHeight="1">
       <c r="A431" s="3" t="s">
         <v>2922</v>
       </c>
@@ -35898,7 +35899,7 @@
       </c>
       <c r="T431" s="3"/>
     </row>
-    <row r="432" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="432" spans="8:8" ht="14.25" customHeight="1">
       <c r="A432" s="3" t="s">
         <v>2922</v>
       </c>
@@ -35952,7 +35953,7 @@
       </c>
       <c r="T432" s="3"/>
     </row>
-    <row r="433" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="433" spans="8:8" ht="14.25" customHeight="1">
       <c r="A433" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36006,7 +36007,7 @@
       </c>
       <c r="T433" s="3"/>
     </row>
-    <row r="434" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="434" spans="8:8" ht="14.25" customHeight="1">
       <c r="A434" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36066,7 +36067,7 @@
       </c>
       <c r="T434" s="3"/>
     </row>
-    <row r="435" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="435" spans="8:8" ht="14.25" customHeight="1">
       <c r="A435" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36120,7 +36121,7 @@
       </c>
       <c r="T435" s="3"/>
     </row>
-    <row r="436" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="436" spans="8:8" ht="14.25" customHeight="1">
       <c r="A436" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36174,7 +36175,7 @@
       </c>
       <c r="T436" s="3"/>
     </row>
-    <row r="437" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="437" spans="8:8" ht="14.25" customHeight="1">
       <c r="A437" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36232,7 +36233,7 @@
       </c>
       <c r="T437" s="3"/>
     </row>
-    <row r="438" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="438" spans="8:8" ht="14.25" customHeight="1">
       <c r="A438" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36286,7 +36287,7 @@
       </c>
       <c r="T438" s="3"/>
     </row>
-    <row r="439" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="439" spans="8:8" ht="14.25" customHeight="1">
       <c r="A439" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36344,7 +36345,7 @@
       </c>
       <c r="T439" s="3"/>
     </row>
-    <row r="440" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="440" spans="8:8" ht="14.25" customHeight="1">
       <c r="A440" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36404,7 +36405,7 @@
       </c>
       <c r="T440" s="3"/>
     </row>
-    <row r="441" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="441" spans="8:8" ht="14.25" customHeight="1">
       <c r="A441" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36460,7 +36461,7 @@
       </c>
       <c r="T441" s="3"/>
     </row>
-    <row r="442" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="442" spans="8:8" ht="14.25" customHeight="1">
       <c r="A442" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36516,7 +36517,7 @@
       </c>
       <c r="T442" s="3"/>
     </row>
-    <row r="443" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="443" spans="8:8" ht="14.25" customHeight="1">
       <c r="A443" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36622,7 +36623,7 @@
       </c>
       <c r="T444" s="3"/>
     </row>
-    <row r="445" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="445" spans="8:8" ht="14.25" customHeight="1">
       <c r="A445" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36678,7 +36679,7 @@
       </c>
       <c r="T445" s="3"/>
     </row>
-    <row r="446" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="446" spans="8:8" ht="14.25" customHeight="1">
       <c r="A446" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36738,7 +36739,7 @@
       </c>
       <c r="T446" s="3"/>
     </row>
-    <row r="447" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="447" spans="8:8" ht="14.25" customHeight="1">
       <c r="A447" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36792,7 +36793,7 @@
       </c>
       <c r="T447" s="3"/>
     </row>
-    <row r="448" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="448" spans="8:8" ht="14.25" customHeight="1">
       <c r="A448" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36906,7 +36907,7 @@
       </c>
       <c r="T449" s="3"/>
     </row>
-    <row r="450" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="450" spans="8:8" ht="14.25" customHeight="1">
       <c r="A450" s="3" t="s">
         <v>2922</v>
       </c>
@@ -36960,7 +36961,7 @@
       </c>
       <c r="T450" s="3"/>
     </row>
-    <row r="451" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="451" spans="8:8" ht="14.25" customHeight="1">
       <c r="A451" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37016,7 +37017,7 @@
       </c>
       <c r="T451" s="3"/>
     </row>
-    <row r="452" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="452" spans="8:8" ht="14.25" customHeight="1">
       <c r="A452" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37072,7 +37073,7 @@
       </c>
       <c r="T452" s="3"/>
     </row>
-    <row r="453" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="453" spans="8:8" ht="14.25" customHeight="1">
       <c r="A453" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37128,7 +37129,7 @@
       </c>
       <c r="T453" s="3"/>
     </row>
-    <row r="454" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="454" spans="8:8" ht="14.25" customHeight="1">
       <c r="A454" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37184,7 +37185,7 @@
       </c>
       <c r="T454" s="3"/>
     </row>
-    <row r="455" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="455" spans="8:8" ht="14.25" customHeight="1">
       <c r="A455" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37234,7 +37235,7 @@
       </c>
       <c r="T455" s="3"/>
     </row>
-    <row r="456" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="456" spans="8:8" ht="14.25" customHeight="1">
       <c r="A456" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37338,7 +37339,7 @@
       </c>
       <c r="T457" s="3"/>
     </row>
-    <row r="458" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="458" spans="8:8" ht="14.25" customHeight="1">
       <c r="A458" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37394,7 +37395,7 @@
       </c>
       <c r="T458" s="3"/>
     </row>
-    <row r="459" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="459" spans="8:8" ht="14.25" customHeight="1">
       <c r="A459" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37454,7 +37455,7 @@
       </c>
       <c r="T459" s="3"/>
     </row>
-    <row r="460" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="460" spans="8:8" ht="14.25" customHeight="1">
       <c r="A460" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37508,7 +37509,7 @@
       </c>
       <c r="T460" s="3"/>
     </row>
-    <row r="461" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="461" spans="8:8" ht="14.25" customHeight="1">
       <c r="A461" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37562,7 +37563,7 @@
       </c>
       <c r="T461" s="3"/>
     </row>
-    <row r="462" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="462" spans="8:8" ht="14.25" customHeight="1">
       <c r="A462" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37620,7 +37621,7 @@
       </c>
       <c r="T462" s="3"/>
     </row>
-    <row r="463" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="463" spans="8:8" ht="14.25" customHeight="1">
       <c r="A463" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37676,7 +37677,7 @@
       </c>
       <c r="T463" s="3"/>
     </row>
-    <row r="464" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="464" spans="8:8" ht="14.25" customHeight="1">
       <c r="A464" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37734,7 +37735,7 @@
       </c>
       <c r="T464" s="3"/>
     </row>
-    <row r="465" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="465" spans="8:8" ht="14.25" customHeight="1">
       <c r="A465" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37788,7 +37789,7 @@
       </c>
       <c r="T465" s="3"/>
     </row>
-    <row r="466" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="466" spans="8:8" ht="14.25" customHeight="1">
       <c r="A466" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37844,7 +37845,7 @@
       </c>
       <c r="T466" s="3"/>
     </row>
-    <row r="467" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="467" spans="8:8" ht="14.25" customHeight="1">
       <c r="A467" s="3" t="s">
         <v>2922</v>
       </c>
@@ -37904,7 +37905,7 @@
       </c>
       <c r="T467" s="3"/>
     </row>
-    <row r="468" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="468" spans="8:8" ht="14.25" customHeight="1">
       <c r="A468" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38010,7 +38011,7 @@
       </c>
       <c r="T469" s="3"/>
     </row>
-    <row r="470" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="470" spans="8:8" ht="14.25" customHeight="1">
       <c r="A470" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38060,7 +38061,7 @@
       </c>
       <c r="T470" s="3"/>
     </row>
-    <row r="471" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="471" spans="8:8" ht="14.25" customHeight="1">
       <c r="A471" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38116,7 +38117,7 @@
       </c>
       <c r="T471" s="3"/>
     </row>
-    <row r="472" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="472" spans="8:8" ht="14.25" customHeight="1">
       <c r="A472" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38170,7 +38171,7 @@
       </c>
       <c r="T472" s="3"/>
     </row>
-    <row r="473" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="473" spans="8:8" ht="14.25" customHeight="1">
       <c r="A473" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38224,7 +38225,7 @@
       </c>
       <c r="T473" s="3"/>
     </row>
-    <row r="474" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="474" spans="8:8" ht="14.25" customHeight="1">
       <c r="A474" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38280,7 +38281,7 @@
       </c>
       <c r="T474" s="3"/>
     </row>
-    <row r="475" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="475" spans="8:8" ht="14.25" customHeight="1">
       <c r="A475" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38388,7 +38389,7 @@
       </c>
       <c r="T476" s="3"/>
     </row>
-    <row r="477" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="477" spans="8:8" ht="14.25" customHeight="1">
       <c r="A477" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38444,7 +38445,7 @@
       </c>
       <c r="T477" s="3"/>
     </row>
-    <row r="478" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="478" spans="8:8" ht="14.25" customHeight="1">
       <c r="A478" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38498,7 +38499,7 @@
       </c>
       <c r="T478" s="3"/>
     </row>
-    <row r="479" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="479" spans="8:8" ht="14.25" customHeight="1">
       <c r="A479" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38558,7 +38559,7 @@
       </c>
       <c r="T479" s="3"/>
     </row>
-    <row r="480" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="480" spans="8:8" ht="14.25" customHeight="1">
       <c r="A480" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38618,7 +38619,7 @@
       </c>
       <c r="T480" s="3"/>
     </row>
-    <row r="481" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="481" spans="8:8" ht="14.25" customHeight="1">
       <c r="A481" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38678,7 +38679,7 @@
       </c>
       <c r="T481" s="3"/>
     </row>
-    <row r="482" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="482" spans="8:8" ht="14.25" customHeight="1">
       <c r="A482" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38738,7 +38739,7 @@
       </c>
       <c r="T482" s="3"/>
     </row>
-    <row r="483" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="483" spans="8:8" ht="14.25" customHeight="1">
       <c r="A483" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38850,7 +38851,7 @@
       </c>
       <c r="T484" s="3"/>
     </row>
-    <row r="485" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="485" spans="8:8" ht="14.25" customHeight="1">
       <c r="A485" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38904,7 +38905,7 @@
       </c>
       <c r="T485" s="3"/>
     </row>
-    <row r="486" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="486" spans="8:8" ht="14.25" customHeight="1">
       <c r="A486" s="3" t="s">
         <v>2922</v>
       </c>
@@ -38964,7 +38965,7 @@
       </c>
       <c r="T486" s="3"/>
     </row>
-    <row r="487" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="487" spans="8:8" ht="14.25" customHeight="1">
       <c r="A487" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39020,7 +39021,7 @@
       </c>
       <c r="T487" s="3"/>
     </row>
-    <row r="488" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="488" spans="8:8" ht="14.25" customHeight="1">
       <c r="A488" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39076,7 +39077,7 @@
       </c>
       <c r="T488" s="3"/>
     </row>
-    <row r="489" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="489" spans="8:8" ht="14.25" customHeight="1">
       <c r="A489" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39132,7 +39133,7 @@
       </c>
       <c r="T489" s="3"/>
     </row>
-    <row r="490" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="490" spans="8:8" ht="14.25" customHeight="1">
       <c r="A490" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39246,7 +39247,7 @@
       </c>
       <c r="T491" s="3"/>
     </row>
-    <row r="492" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="492" spans="8:8" ht="14.25" customHeight="1">
       <c r="A492" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39302,7 +39303,7 @@
       </c>
       <c r="T492" s="3"/>
     </row>
-    <row r="493" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="493" spans="8:8" ht="14.25" customHeight="1">
       <c r="A493" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39356,7 +39357,7 @@
       </c>
       <c r="T493" s="3"/>
     </row>
-    <row r="494" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="494" spans="8:8" ht="14.25" customHeight="1">
       <c r="A494" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39412,7 +39413,7 @@
       </c>
       <c r="T494" s="3"/>
     </row>
-    <row r="495" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="495" spans="8:8" ht="14.25" customHeight="1">
       <c r="A495" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39468,7 +39469,7 @@
       </c>
       <c r="T495" s="3"/>
     </row>
-    <row r="496" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="496" spans="8:8" ht="14.25" customHeight="1">
       <c r="A496" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39524,7 +39525,7 @@
       </c>
       <c r="T496" s="3"/>
     </row>
-    <row r="497" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="497" spans="8:8" ht="14.25" customHeight="1">
       <c r="A497" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39578,7 +39579,7 @@
       </c>
       <c r="T497" s="3"/>
     </row>
-    <row r="498" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="498" spans="8:8" ht="14.25" customHeight="1">
       <c r="A498" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39638,7 +39639,7 @@
       </c>
       <c r="T498" s="3"/>
     </row>
-    <row r="499" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="499" spans="8:8" ht="14.25" customHeight="1">
       <c r="A499" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39692,7 +39693,7 @@
       </c>
       <c r="T499" s="3"/>
     </row>
-    <row r="500" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="500" spans="8:8" ht="14.25" customHeight="1">
       <c r="A500" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39752,7 +39753,7 @@
       </c>
       <c r="T500" s="3"/>
     </row>
-    <row r="501" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="501" spans="8:8" ht="14.25" customHeight="1">
       <c r="A501" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39808,7 +39809,7 @@
       </c>
       <c r="T501" s="3"/>
     </row>
-    <row r="502" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="502" spans="8:8" ht="14.25" customHeight="1">
       <c r="A502" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39868,7 +39869,7 @@
       </c>
       <c r="T502" s="3"/>
     </row>
-    <row r="503" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="503" spans="8:8" ht="14.25" customHeight="1">
       <c r="A503" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39924,7 +39925,7 @@
       </c>
       <c r="T503" s="3"/>
     </row>
-    <row r="504" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="504" spans="8:8" ht="14.25" customHeight="1">
       <c r="A504" s="3" t="s">
         <v>2922</v>
       </c>
@@ -39978,7 +39979,7 @@
       </c>
       <c r="T504" s="3"/>
     </row>
-    <row r="505" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="505" spans="8:8" ht="14.25" customHeight="1">
       <c r="A505" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40038,7 +40039,7 @@
       </c>
       <c r="T505" s="3"/>
     </row>
-    <row r="506" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="506" spans="8:8" ht="14.25" customHeight="1">
       <c r="A506" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40148,7 +40149,7 @@
       </c>
       <c r="T507" s="3"/>
     </row>
-    <row r="508" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="508" spans="8:8" ht="14.25" customHeight="1">
       <c r="A508" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40202,7 +40203,7 @@
       </c>
       <c r="T508" s="3"/>
     </row>
-    <row r="509" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="509" spans="8:8" ht="14.25" customHeight="1">
       <c r="A509" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40260,7 +40261,7 @@
       </c>
       <c r="T509" s="3"/>
     </row>
-    <row r="510" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="510" spans="8:8" ht="14.25" customHeight="1">
       <c r="A510" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40314,7 +40315,7 @@
       </c>
       <c r="T510" s="3"/>
     </row>
-    <row r="511" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="511" spans="8:8" ht="14.25" customHeight="1">
       <c r="A511" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40370,7 +40371,7 @@
       </c>
       <c r="T511" s="3"/>
     </row>
-    <row r="512" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="512" spans="8:8" ht="14.25" customHeight="1">
       <c r="A512" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40430,7 +40431,7 @@
       </c>
       <c r="T512" s="3"/>
     </row>
-    <row r="513" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="513" spans="8:8" ht="14.25" customHeight="1">
       <c r="A513" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40484,7 +40485,7 @@
       </c>
       <c r="T513" s="3"/>
     </row>
-    <row r="514" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="514" spans="8:8" ht="14.25" customHeight="1">
       <c r="A514" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40536,7 +40537,7 @@
       </c>
       <c r="T514" s="3"/>
     </row>
-    <row r="515" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="515" spans="8:8" ht="14.25" customHeight="1">
       <c r="A515" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40592,7 +40593,7 @@
       </c>
       <c r="T515" s="3"/>
     </row>
-    <row r="516" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="516" spans="8:8" ht="14.25" customHeight="1">
       <c r="A516" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40646,7 +40647,7 @@
       </c>
       <c r="T516" s="3"/>
     </row>
-    <row r="517" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="517" spans="8:8" ht="14.25" customHeight="1">
       <c r="A517" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40706,7 +40707,7 @@
       </c>
       <c r="T517" s="3"/>
     </row>
-    <row r="518" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="518" spans="8:8" ht="14.25" customHeight="1">
       <c r="A518" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40818,7 +40819,7 @@
       </c>
       <c r="T519" s="3"/>
     </row>
-    <row r="520" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="520" spans="8:8" ht="14.25" customHeight="1">
       <c r="A520" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40878,7 +40879,7 @@
       </c>
       <c r="T520" s="3"/>
     </row>
-    <row r="521" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="521" spans="8:8" ht="14.25" customHeight="1">
       <c r="A521" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40936,7 +40937,7 @@
       </c>
       <c r="T521" s="3"/>
     </row>
-    <row r="522" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="522" spans="8:8" ht="14.25" customHeight="1">
       <c r="A522" s="3" t="s">
         <v>2922</v>
       </c>
@@ -40994,7 +40995,7 @@
       </c>
       <c r="T522" s="3"/>
     </row>
-    <row r="523" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="523" spans="8:8" ht="14.25" customHeight="1">
       <c r="A523" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41048,7 +41049,7 @@
       </c>
       <c r="T523" s="3"/>
     </row>
-    <row r="524" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="524" spans="8:8" ht="14.25" customHeight="1">
       <c r="A524" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41104,7 +41105,7 @@
       </c>
       <c r="T524" s="3"/>
     </row>
-    <row r="525" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="525" spans="8:8" ht="14.25" customHeight="1">
       <c r="A525" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41160,7 +41161,7 @@
       </c>
       <c r="T525" s="3"/>
     </row>
-    <row r="526" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="526" spans="8:8" ht="14.25" customHeight="1">
       <c r="A526" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41218,7 +41219,7 @@
       </c>
       <c r="T526" s="3"/>
     </row>
-    <row r="527" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="527" spans="8:8" ht="14.25" customHeight="1">
       <c r="A527" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41276,7 +41277,7 @@
       </c>
       <c r="T527" s="3"/>
     </row>
-    <row r="528" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="528" spans="8:8" ht="14.25" customHeight="1">
       <c r="A528" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41336,7 +41337,7 @@
       </c>
       <c r="T528" s="3"/>
     </row>
-    <row r="529" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="529" spans="8:8" ht="14.25" customHeight="1">
       <c r="A529" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41396,7 +41397,7 @@
       </c>
       <c r="T529" s="3"/>
     </row>
-    <row r="530" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="530" spans="8:8" ht="14.25" customHeight="1">
       <c r="A530" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41452,7 +41453,7 @@
       </c>
       <c r="T530" s="3"/>
     </row>
-    <row r="531" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="531" spans="8:8" ht="14.25" customHeight="1">
       <c r="A531" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41512,7 +41513,7 @@
       </c>
       <c r="T531" s="3"/>
     </row>
-    <row r="532" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="532" spans="8:8" ht="14.25" customHeight="1">
       <c r="A532" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41572,7 +41573,7 @@
       </c>
       <c r="T532" s="3"/>
     </row>
-    <row r="533" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="533" spans="8:8" ht="14.25" customHeight="1">
       <c r="A533" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41626,7 +41627,7 @@
       </c>
       <c r="T533" s="3"/>
     </row>
-    <row r="534" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="534" spans="8:8" ht="14.25" customHeight="1">
       <c r="A534" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41686,7 +41687,7 @@
       </c>
       <c r="T534" s="3"/>
     </row>
-    <row r="535" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="535" spans="8:8" ht="14.25" customHeight="1">
       <c r="A535" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41740,7 +41741,7 @@
       </c>
       <c r="T535" s="3"/>
     </row>
-    <row r="536" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="536" spans="8:8" ht="14.25" customHeight="1">
       <c r="A536" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41800,7 +41801,7 @@
       </c>
       <c r="T536" s="3"/>
     </row>
-    <row r="537" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="537" spans="8:8" ht="14.25" customHeight="1">
       <c r="A537" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41858,7 +41859,7 @@
       </c>
       <c r="T537" s="3"/>
     </row>
-    <row r="538" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="538" spans="8:8" ht="14.25" customHeight="1">
       <c r="A538" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41918,7 +41919,7 @@
       </c>
       <c r="T538" s="3"/>
     </row>
-    <row r="539" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="539" spans="8:8" ht="14.25" customHeight="1">
       <c r="A539" s="3" t="s">
         <v>2922</v>
       </c>
@@ -41972,7 +41973,7 @@
       </c>
       <c r="T539" s="3"/>
     </row>
-    <row r="540" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="540" spans="8:8" ht="14.25" customHeight="1">
       <c r="A540" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42032,7 +42033,7 @@
       </c>
       <c r="T540" s="3"/>
     </row>
-    <row r="541" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="541" spans="8:8" ht="14.25" customHeight="1">
       <c r="A541" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42136,7 +42137,7 @@
       </c>
       <c r="T542" s="3"/>
     </row>
-    <row r="543" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="543" spans="8:8" ht="14.25" customHeight="1">
       <c r="A543" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42196,7 +42197,7 @@
       </c>
       <c r="T543" s="3"/>
     </row>
-    <row r="544" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="544" spans="8:8" ht="14.25" customHeight="1">
       <c r="A544" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42300,7 +42301,7 @@
       </c>
       <c r="T545" s="3"/>
     </row>
-    <row r="546" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="546" spans="8:8" ht="14.25" customHeight="1">
       <c r="A546" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42354,7 +42355,7 @@
       </c>
       <c r="T546" s="3"/>
     </row>
-    <row r="547" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="547" spans="8:8" ht="14.25" customHeight="1">
       <c r="A547" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42412,7 +42413,7 @@
       </c>
       <c r="T547" s="3"/>
     </row>
-    <row r="548" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="548" spans="8:8" ht="14.25" customHeight="1">
       <c r="A548" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42468,7 +42469,7 @@
       </c>
       <c r="T548" s="3"/>
     </row>
-    <row r="549" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="549" spans="8:8" ht="14.25" customHeight="1">
       <c r="A549" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42524,7 +42525,7 @@
       </c>
       <c r="T549" s="3"/>
     </row>
-    <row r="550" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="550" spans="8:8" ht="14.25" customHeight="1">
       <c r="A550" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42580,7 +42581,7 @@
       </c>
       <c r="T550" s="3"/>
     </row>
-    <row r="551" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="551" spans="8:8" ht="14.25" customHeight="1">
       <c r="A551" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42636,7 +42637,7 @@
       </c>
       <c r="T551" s="3"/>
     </row>
-    <row r="552" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="552" spans="8:8" ht="14.25" customHeight="1">
       <c r="A552" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42692,7 +42693,7 @@
       </c>
       <c r="T552" s="3"/>
     </row>
-    <row r="553" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="553" spans="8:8" ht="14.25" customHeight="1">
       <c r="A553" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42746,7 +42747,7 @@
       </c>
       <c r="T553" s="3"/>
     </row>
-    <row r="554" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="554" spans="8:8" ht="14.25" customHeight="1">
       <c r="A554" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42850,7 +42851,7 @@
       </c>
       <c r="T555" s="3"/>
     </row>
-    <row r="556" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="556" spans="8:8" ht="14.25" customHeight="1">
       <c r="A556" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42906,7 +42907,7 @@
       </c>
       <c r="T556" s="3"/>
     </row>
-    <row r="557" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="557" spans="8:8" ht="14.25" customHeight="1">
       <c r="A557" s="3" t="s">
         <v>2922</v>
       </c>
@@ -42966,7 +42967,7 @@
       </c>
       <c r="T557" s="3"/>
     </row>
-    <row r="558" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="558" spans="8:8" ht="14.25" customHeight="1">
       <c r="A558" s="3" t="s">
         <v>2922</v>
       </c>
@@ -43020,7 +43021,7 @@
       </c>
       <c r="T558" s="3"/>
     </row>
-    <row r="559" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="559" spans="8:8" ht="14.25" customHeight="1">
       <c r="A559" s="3" t="s">
         <v>2922</v>
       </c>
@@ -43134,7 +43135,7 @@
       </c>
       <c r="T560" s="3"/>
     </row>
-    <row r="561" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="561" spans="8:8" ht="14.25" customHeight="1">
       <c r="A561" s="3" t="s">
         <v>2922</v>
       </c>
@@ -43194,7 +43195,7 @@
       </c>
       <c r="T561" s="3"/>
     </row>
-    <row r="562" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="562" spans="8:8" ht="14.25" customHeight="1">
       <c r="A562" s="3" t="s">
         <v>2922</v>
       </c>
@@ -43254,7 +43255,7 @@
       </c>
       <c r="T562" s="3"/>
     </row>
-    <row r="563" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="563" spans="8:8" ht="14.25" customHeight="1">
       <c r="A563" s="3" t="s">
         <v>2922</v>
       </c>
@@ -43310,7 +43311,7 @@
       </c>
       <c r="T563" s="3"/>
     </row>
-    <row r="564" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="564" spans="8:8" ht="14.25" customHeight="1">
       <c r="A564" s="3" t="s">
         <v>2922</v>
       </c>
@@ -43360,7 +43361,7 @@
       </c>
       <c r="T564" s="3"/>
     </row>
-    <row r="565" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="565" spans="8:8" ht="14.25" customHeight="1">
       <c r="A565" s="3" t="s">
         <v>2922</v>
       </c>
@@ -43418,7 +43419,7 @@
       </c>
       <c r="T565" s="3"/>
     </row>
-    <row r="566" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="566" spans="8:8" ht="14.25" customHeight="1">
       <c r="A566" s="3" t="s">
         <v>2922</v>
       </c>
@@ -43478,7 +43479,7 @@
       </c>
       <c r="T566" s="3"/>
     </row>
-    <row r="567" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="567" spans="8:8" ht="14.25" customHeight="1">
       <c r="A567" s="3" t="s">
         <v>2922</v>
       </c>
@@ -43590,7 +43591,7 @@
       </c>
       <c r="T568" s="3"/>
     </row>
-    <row r="569" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="569" spans="8:8" ht="14.25" customHeight="1">
       <c r="A569" s="3" t="s">
         <v>2922</v>
       </c>
@@ -43642,7 +43643,7 @@
       </c>
       <c r="T569" s="3"/>
     </row>
-    <row r="570" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="570" spans="8:8" ht="14.25" customHeight="1">
       <c r="A570" s="3" t="s">
         <v>2922</v>
       </c>
@@ -43748,7 +43749,7 @@
       </c>
       <c r="T571" s="3"/>
     </row>
-    <row r="572" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="572" spans="8:8" ht="14.25" customHeight="1">
       <c r="A572" s="3" t="s">
         <v>2922</v>
       </c>
@@ -43808,7 +43809,7 @@
       </c>
       <c r="T572" s="3"/>
     </row>
-    <row r="573" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="573" spans="8:8" ht="14.25" customHeight="1">
       <c r="A573" s="3" t="s">
         <v>2922</v>
       </c>
@@ -43868,7 +43869,7 @@
       </c>
       <c r="T573" s="3"/>
     </row>
-    <row r="574" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="574" spans="8:8" ht="14.25" customHeight="1">
       <c r="A574" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44028,7 +44029,7 @@
       </c>
       <c r="T576" s="3"/>
     </row>
-    <row r="577" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="577" spans="8:8" ht="14.25" customHeight="1">
       <c r="A577" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44084,7 +44085,7 @@
       </c>
       <c r="T577" s="3"/>
     </row>
-    <row r="578" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="578" spans="8:8" ht="14.25" customHeight="1">
       <c r="A578" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44140,7 +44141,7 @@
       </c>
       <c r="T578" s="3"/>
     </row>
-    <row r="579" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="579" spans="8:8" ht="14.25" customHeight="1">
       <c r="A579" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44200,7 +44201,7 @@
       </c>
       <c r="T579" s="3"/>
     </row>
-    <row r="580" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="580" spans="8:8" ht="14.25" customHeight="1">
       <c r="A580" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44254,7 +44255,7 @@
       </c>
       <c r="T580" s="3"/>
     </row>
-    <row r="581" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="581" spans="8:8" ht="14.25" customHeight="1">
       <c r="A581" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44308,7 +44309,7 @@
       <c r="S581" s="3"/>
       <c r="T581" s="3"/>
     </row>
-    <row r="582" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="582" spans="8:8" ht="14.25" customHeight="1">
       <c r="A582" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44364,7 +44365,7 @@
       </c>
       <c r="T582" s="3"/>
     </row>
-    <row r="583" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="583" spans="8:8" ht="14.25" customHeight="1">
       <c r="A583" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44422,7 +44423,7 @@
       </c>
       <c r="T583" s="3"/>
     </row>
-    <row r="584" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="584" spans="8:8" ht="14.25" customHeight="1">
       <c r="A584" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44482,7 +44483,7 @@
       </c>
       <c r="T584" s="3"/>
     </row>
-    <row r="585" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="585" spans="8:8" ht="14.25" customHeight="1">
       <c r="A585" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44540,7 +44541,7 @@
       </c>
       <c r="T585" s="3"/>
     </row>
-    <row r="586" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="586" spans="8:8" ht="14.25" customHeight="1">
       <c r="A586" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44594,7 +44595,7 @@
       </c>
       <c r="T586" s="3"/>
     </row>
-    <row r="587" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="587" spans="8:8" ht="14.25" customHeight="1">
       <c r="A587" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44654,7 +44655,7 @@
       </c>
       <c r="T587" s="3"/>
     </row>
-    <row r="588" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="588" spans="8:8" ht="14.25" customHeight="1">
       <c r="A588" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44714,7 +44715,7 @@
       </c>
       <c r="T588" s="3"/>
     </row>
-    <row r="589" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="589" spans="8:8" ht="14.25" customHeight="1">
       <c r="A589" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44768,7 +44769,7 @@
       </c>
       <c r="T589" s="3"/>
     </row>
-    <row r="590" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="590" spans="8:8" ht="14.25" customHeight="1">
       <c r="A590" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44826,7 +44827,7 @@
       </c>
       <c r="T590" s="3"/>
     </row>
-    <row r="591" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="591" spans="8:8" ht="14.25" customHeight="1">
       <c r="A591" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44880,7 +44881,7 @@
       </c>
       <c r="T591" s="3"/>
     </row>
-    <row r="592" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="592" spans="8:8" ht="14.25" customHeight="1">
       <c r="A592" s="3" t="s">
         <v>2922</v>
       </c>
@@ -44990,7 +44991,7 @@
       </c>
       <c r="T593" s="3"/>
     </row>
-    <row r="594" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="594" spans="8:8" ht="14.25" customHeight="1">
       <c r="A594" s="3" t="s">
         <v>2922</v>
       </c>
@@ -45044,7 +45045,7 @@
       </c>
       <c r="T594" s="3"/>
     </row>
-    <row r="595" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="595" spans="8:8" ht="14.25" customHeight="1">
       <c r="A595" s="3" t="s">
         <v>2922</v>
       </c>
@@ -45104,7 +45105,7 @@
       </c>
       <c r="T595" s="3"/>
     </row>
-    <row r="596" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="596" spans="8:8" ht="14.25" customHeight="1">
       <c r="A596" s="3" t="s">
         <v>2922</v>
       </c>
@@ -45212,7 +45213,7 @@
       </c>
       <c r="T597" s="3"/>
     </row>
-    <row r="598" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="598" spans="8:8" ht="14.25" customHeight="1">
       <c r="A598" s="3" t="s">
         <v>2922</v>
       </c>
@@ -45268,7 +45269,7 @@
       </c>
       <c r="T598" s="3"/>
     </row>
-    <row r="599" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="599" spans="8:8" ht="14.25" customHeight="1">
       <c r="A599" s="3" t="s">
         <v>2922</v>
       </c>
@@ -45326,7 +45327,7 @@
       </c>
       <c r="T599" s="3"/>
     </row>
-    <row r="600" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="600" spans="8:8" ht="14.25" customHeight="1">
       <c r="A600" s="3" t="s">
         <v>2922</v>
       </c>
@@ -45380,7 +45381,7 @@
       </c>
       <c r="T600" s="3"/>
     </row>
-    <row r="601" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="601" spans="8:8" ht="14.25" customHeight="1">
       <c r="A601" s="3" t="s">
         <v>2922</v>
       </c>
@@ -45440,7 +45441,7 @@
       </c>
       <c r="T601" s="3"/>
     </row>
-    <row r="602" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="602" spans="8:8" ht="14.25" customHeight="1">
       <c r="A602" s="3" t="s">
         <v>2233</v>
       </c>
@@ -45498,7 +45499,7 @@
       </c>
       <c r="T602" s="3"/>
     </row>
-    <row r="603" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="603" spans="8:8" ht="14.25" customHeight="1">
       <c r="A603" s="3" t="s">
         <v>2233</v>
       </c>
@@ -45556,7 +45557,7 @@
       </c>
       <c r="T603" s="3"/>
     </row>
-    <row r="604" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="604" spans="8:8" ht="14.25" customHeight="1">
       <c r="A604" s="3" t="s">
         <v>2233</v>
       </c>
@@ -45610,7 +45611,7 @@
       </c>
       <c r="T604" s="3"/>
     </row>
-    <row r="605" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="605" spans="8:8" ht="14.25" customHeight="1">
       <c r="A605" s="3" t="s">
         <v>2233</v>
       </c>
@@ -45666,7 +45667,7 @@
       </c>
       <c r="T605" s="3"/>
     </row>
-    <row r="606" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="606" spans="8:8" ht="14.25" customHeight="1">
       <c r="A606" s="3" t="s">
         <v>2233</v>
       </c>
@@ -45724,7 +45725,7 @@
       </c>
       <c r="T606" s="3"/>
     </row>
-    <row r="607" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="607" spans="8:8" ht="14.25" customHeight="1">
       <c r="A607" s="3" t="s">
         <v>2233</v>
       </c>
@@ -45828,7 +45829,7 @@
       </c>
       <c r="T608" s="3"/>
     </row>
-    <row r="609" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="609" spans="8:8" ht="14.25" customHeight="1">
       <c r="A609" s="3" t="s">
         <v>2233</v>
       </c>
@@ -45884,7 +45885,7 @@
       </c>
       <c r="T609" s="3"/>
     </row>
-    <row r="610" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="610" spans="8:8" ht="14.25" customHeight="1">
       <c r="A610" s="3" t="s">
         <v>2233</v>
       </c>
@@ -45940,7 +45941,7 @@
       </c>
       <c r="T610" s="3"/>
     </row>
-    <row r="611" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="611" spans="8:8" ht="14.25" customHeight="1">
       <c r="A611" s="3" t="s">
         <v>2233</v>
       </c>
@@ -45998,7 +45999,7 @@
       </c>
       <c r="T611" s="3"/>
     </row>
-    <row r="612" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="612" spans="8:8" ht="14.25" customHeight="1">
       <c r="A612" s="3" t="s">
         <v>2233</v>
       </c>
@@ -46056,7 +46057,7 @@
       </c>
       <c r="T612" s="3"/>
     </row>
-    <row r="613" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="613" spans="8:8" ht="14.25" customHeight="1">
       <c r="A613" s="3" t="s">
         <v>2233</v>
       </c>
@@ -46112,7 +46113,7 @@
       </c>
       <c r="T613" s="3"/>
     </row>
-    <row r="614" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="614" spans="8:8" ht="14.25" customHeight="1">
       <c r="A614" s="3" t="s">
         <v>2233</v>
       </c>
@@ -46172,7 +46173,7 @@
       </c>
       <c r="T614" s="3"/>
     </row>
-    <row r="615" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="615" spans="8:8" ht="14.25" customHeight="1">
       <c r="A615" s="3" t="s">
         <v>2233</v>
       </c>
@@ -46232,7 +46233,7 @@
       </c>
       <c r="T615" s="3"/>
     </row>
-    <row r="616" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="616" spans="8:8" ht="14.25" customHeight="1">
       <c r="A616" s="3" t="s">
         <v>2233</v>
       </c>
@@ -46390,7 +46391,7 @@
       </c>
       <c r="T618" s="3"/>
     </row>
-    <row r="619" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="619" spans="8:8" ht="14.25" customHeight="1">
       <c r="A619" s="3" t="s">
         <v>2233</v>
       </c>
@@ -46448,7 +46449,7 @@
       </c>
       <c r="T619" s="3"/>
     </row>
-    <row r="620" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="620" spans="8:8" ht="14.25" customHeight="1">
       <c r="A620" s="3" t="s">
         <v>2233</v>
       </c>
@@ -46508,7 +46509,7 @@
       </c>
       <c r="T620" s="3"/>
     </row>
-    <row r="621" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="621" spans="8:8" ht="14.25" customHeight="1">
       <c r="A621" s="3" t="s">
         <v>2233</v>
       </c>
@@ -46662,7 +46663,7 @@
       </c>
       <c r="T623" s="3"/>
     </row>
-    <row r="624" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="624" spans="8:8" ht="14.25" customHeight="1">
       <c r="A624" s="3" t="s">
         <v>2233</v>
       </c>
@@ -46718,7 +46719,7 @@
       </c>
       <c r="T624" s="3"/>
     </row>
-    <row r="625" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="625" spans="8:8" ht="14.25" customHeight="1">
       <c r="A625" s="3" t="s">
         <v>2233</v>
       </c>
@@ -46772,7 +46773,7 @@
       </c>
       <c r="T625" s="3"/>
     </row>
-    <row r="626" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="626" spans="8:8" ht="14.25" customHeight="1">
       <c r="A626" s="3" t="s">
         <v>2233</v>
       </c>
@@ -46828,7 +46829,7 @@
       </c>
       <c r="T626" s="3"/>
     </row>
-    <row r="627" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="627" spans="8:8" ht="14.25" customHeight="1">
       <c r="A627" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47034,7 +47035,7 @@
       </c>
       <c r="T630" s="3"/>
     </row>
-    <row r="631" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="631" spans="8:8" ht="14.25" customHeight="1">
       <c r="A631" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47088,7 +47089,7 @@
       </c>
       <c r="T631" s="3"/>
     </row>
-    <row r="632" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="632" spans="8:8" ht="14.25" customHeight="1">
       <c r="A632" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47148,7 +47149,7 @@
       </c>
       <c r="T632" s="3"/>
     </row>
-    <row r="633" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="633" spans="8:8" ht="14.25" customHeight="1">
       <c r="A633" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47204,7 +47205,7 @@
       </c>
       <c r="T633" s="3"/>
     </row>
-    <row r="634" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="634" spans="8:8" ht="14.25" customHeight="1">
       <c r="A634" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47260,7 +47261,7 @@
       </c>
       <c r="T634" s="3"/>
     </row>
-    <row r="635" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="635" spans="8:8" ht="14.25" customHeight="1">
       <c r="A635" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47314,7 +47315,7 @@
       </c>
       <c r="T635" s="3"/>
     </row>
-    <row r="636" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="636" spans="8:8" ht="14.25" customHeight="1">
       <c r="A636" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47470,7 +47471,7 @@
       </c>
       <c r="T638" s="3"/>
     </row>
-    <row r="639" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="639" spans="8:8" ht="14.25" customHeight="1">
       <c r="A639" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47526,7 +47527,7 @@
       </c>
       <c r="T639" s="3"/>
     </row>
-    <row r="640" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="640" spans="8:8" ht="14.25" customHeight="1">
       <c r="A640" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47580,7 +47581,7 @@
       </c>
       <c r="T640" s="3"/>
     </row>
-    <row r="641" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="641" spans="8:8" ht="14.25" customHeight="1">
       <c r="A641" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47634,7 +47635,7 @@
       </c>
       <c r="T641" s="3"/>
     </row>
-    <row r="642" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="642" spans="8:8" ht="14.25" customHeight="1">
       <c r="A642" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47694,7 +47695,7 @@
       </c>
       <c r="T642" s="3"/>
     </row>
-    <row r="643" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="643" spans="8:8" ht="14.25" customHeight="1">
       <c r="A643" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47752,7 +47753,7 @@
       </c>
       <c r="T643" s="3"/>
     </row>
-    <row r="644" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="644" spans="8:8" ht="14.25" customHeight="1">
       <c r="A644" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47806,7 +47807,7 @@
       </c>
       <c r="T644" s="3"/>
     </row>
-    <row r="645" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="645" spans="8:8" ht="14.25" customHeight="1">
       <c r="A645" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47864,7 +47865,7 @@
       </c>
       <c r="T645" s="3"/>
     </row>
-    <row r="646" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="646" spans="8:8" ht="14.25" customHeight="1">
       <c r="A646" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47920,7 +47921,7 @@
       </c>
       <c r="T646" s="3"/>
     </row>
-    <row r="647" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="647" spans="8:8" ht="14.25" customHeight="1">
       <c r="A647" s="3" t="s">
         <v>2233</v>
       </c>
@@ -47974,7 +47975,7 @@
       </c>
       <c r="T647" s="3"/>
     </row>
-    <row r="648" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="648" spans="8:8" ht="14.25" customHeight="1">
       <c r="A648" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48024,7 +48025,7 @@
       </c>
       <c r="T648" s="3"/>
     </row>
-    <row r="649" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="649" spans="8:8" ht="14.25" customHeight="1">
       <c r="A649" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48084,7 +48085,7 @@
       </c>
       <c r="T649" s="3"/>
     </row>
-    <row r="650" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="650" spans="8:8" ht="14.25" customHeight="1">
       <c r="A650" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48138,7 +48139,7 @@
       </c>
       <c r="T650" s="3"/>
     </row>
-    <row r="651" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="651" spans="8:8" ht="14.25" customHeight="1">
       <c r="A651" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48192,7 +48193,7 @@
       </c>
       <c r="T651" s="3"/>
     </row>
-    <row r="652" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="652" spans="8:8" ht="14.25" customHeight="1">
       <c r="A652" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48246,7 +48247,7 @@
       </c>
       <c r="T652" s="3"/>
     </row>
-    <row r="653" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="653" spans="8:8" ht="14.25" customHeight="1">
       <c r="A653" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48300,7 +48301,7 @@
       </c>
       <c r="T653" s="3"/>
     </row>
-    <row r="654" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="654" spans="8:8" ht="14.25" customHeight="1">
       <c r="A654" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48354,7 +48355,7 @@
       </c>
       <c r="T654" s="3"/>
     </row>
-    <row r="655" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="655" spans="8:8" ht="14.25" customHeight="1">
       <c r="A655" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48410,7 +48411,7 @@
       </c>
       <c r="T655" s="3"/>
     </row>
-    <row r="656" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="656" spans="8:8" ht="14.25" customHeight="1">
       <c r="A656" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48468,7 +48469,7 @@
       </c>
       <c r="T656" s="3"/>
     </row>
-    <row r="657" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="657" spans="8:8" ht="14.25" customHeight="1">
       <c r="A657" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48522,7 +48523,7 @@
       </c>
       <c r="T657" s="3"/>
     </row>
-    <row r="658" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="658" spans="8:8" ht="14.25" customHeight="1">
       <c r="A658" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48578,7 +48579,7 @@
       </c>
       <c r="T658" s="3"/>
     </row>
-    <row r="659" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="659" spans="8:8" ht="14.25" customHeight="1">
       <c r="A659" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48634,7 +48635,7 @@
       </c>
       <c r="T659" s="3"/>
     </row>
-    <row r="660" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="660" spans="8:8" ht="14.25" customHeight="1">
       <c r="A660" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48690,7 +48691,7 @@
       </c>
       <c r="T660" s="3"/>
     </row>
-    <row r="661" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="661" spans="8:8" ht="14.25" customHeight="1">
       <c r="A661" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48746,7 +48747,7 @@
       </c>
       <c r="T661" s="3"/>
     </row>
-    <row r="662" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="662" spans="8:8" ht="14.25" customHeight="1">
       <c r="A662" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48802,7 +48803,7 @@
       </c>
       <c r="T662" s="3"/>
     </row>
-    <row r="663" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="663" spans="8:8" ht="14.25" customHeight="1">
       <c r="A663" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48862,7 +48863,7 @@
       </c>
       <c r="T663" s="3"/>
     </row>
-    <row r="664" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="664" spans="8:8" ht="14.25" customHeight="1">
       <c r="A664" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48918,7 +48919,7 @@
       </c>
       <c r="T664" s="3"/>
     </row>
-    <row r="665" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="665" spans="8:8" ht="14.25" customHeight="1">
       <c r="A665" s="3" t="s">
         <v>2233</v>
       </c>
@@ -48978,7 +48979,7 @@
       </c>
       <c r="T665" s="3"/>
     </row>
-    <row r="666" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="666" spans="8:8" ht="14.25" customHeight="1">
       <c r="A666" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49038,7 +49039,7 @@
       </c>
       <c r="T666" s="3"/>
     </row>
-    <row r="667" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="667" spans="8:8" ht="14.25" customHeight="1">
       <c r="A667" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49096,7 +49097,7 @@
       </c>
       <c r="T667" s="3"/>
     </row>
-    <row r="668" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="668" spans="8:8" ht="14.25" customHeight="1">
       <c r="A668" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49156,7 +49157,7 @@
       </c>
       <c r="T668" s="3"/>
     </row>
-    <row r="669" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="669" spans="8:8" ht="14.25" customHeight="1">
       <c r="A669" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49214,7 +49215,7 @@
       </c>
       <c r="T669" s="3"/>
     </row>
-    <row r="670" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="670" spans="8:8" ht="14.25" customHeight="1">
       <c r="A670" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49272,7 +49273,7 @@
       </c>
       <c r="T670" s="3"/>
     </row>
-    <row r="671" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="671" spans="8:8" ht="14.25" customHeight="1">
       <c r="A671" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49326,7 +49327,7 @@
       </c>
       <c r="T671" s="3"/>
     </row>
-    <row r="672" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="672" spans="8:8" ht="14.25" customHeight="1">
       <c r="A672" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49434,7 +49435,7 @@
       </c>
       <c r="T673" s="3"/>
     </row>
-    <row r="674" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="674" spans="8:8" ht="14.25" customHeight="1">
       <c r="A674" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49492,7 +49493,7 @@
       </c>
       <c r="T674" s="3"/>
     </row>
-    <row r="675" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="675" spans="8:8" ht="14.25" customHeight="1">
       <c r="A675" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49550,7 +49551,7 @@
       </c>
       <c r="T675" s="3"/>
     </row>
-    <row r="676" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="676" spans="8:8" ht="14.25" customHeight="1">
       <c r="A676" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49658,7 +49659,7 @@
       </c>
       <c r="T677" s="3"/>
     </row>
-    <row r="678" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="678" spans="8:8" ht="14.25" customHeight="1">
       <c r="A678" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49768,7 +49769,7 @@
       </c>
       <c r="T679" s="3"/>
     </row>
-    <row r="680" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="680" spans="8:8" ht="14.25" customHeight="1">
       <c r="A680" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49822,7 +49823,7 @@
       </c>
       <c r="T680" s="3"/>
     </row>
-    <row r="681" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="681" spans="8:8" ht="14.25" customHeight="1">
       <c r="A681" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49876,7 +49877,7 @@
       </c>
       <c r="T681" s="3"/>
     </row>
-    <row r="682" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="682" spans="8:8" ht="14.25" customHeight="1">
       <c r="A682" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49930,7 +49931,7 @@
       </c>
       <c r="T682" s="3"/>
     </row>
-    <row r="683" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="683" spans="8:8" ht="14.25" customHeight="1">
       <c r="A683" s="3" t="s">
         <v>2233</v>
       </c>
@@ -49988,7 +49989,7 @@
       </c>
       <c r="T683" s="3"/>
     </row>
-    <row r="684" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="684" spans="8:8" ht="14.25" customHeight="1">
       <c r="A684" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50042,7 +50043,7 @@
       </c>
       <c r="T684" s="3"/>
     </row>
-    <row r="685" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="685" spans="8:8" ht="14.25" customHeight="1">
       <c r="A685" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50096,7 +50097,7 @@
       </c>
       <c r="T685" s="3"/>
     </row>
-    <row r="686" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="686" spans="8:8" ht="14.25" customHeight="1">
       <c r="A686" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50150,7 +50151,7 @@
       </c>
       <c r="T686" s="3"/>
     </row>
-    <row r="687" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="687" spans="8:8" ht="14.25" customHeight="1">
       <c r="A687" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50204,7 +50205,7 @@
       </c>
       <c r="T687" s="3"/>
     </row>
-    <row r="688" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="688" spans="8:8" ht="14.25" customHeight="1">
       <c r="A688" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50258,7 +50259,7 @@
       </c>
       <c r="T688" s="3"/>
     </row>
-    <row r="689" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="689" spans="8:8" ht="14.25" customHeight="1">
       <c r="A689" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50318,7 +50319,7 @@
       </c>
       <c r="T689" s="3"/>
     </row>
-    <row r="690" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="690" spans="8:8" ht="14.25" customHeight="1">
       <c r="A690" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50378,7 +50379,7 @@
       </c>
       <c r="T690" s="3"/>
     </row>
-    <row r="691" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="691" spans="8:8" ht="14.25" customHeight="1">
       <c r="A691" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50432,7 +50433,7 @@
       </c>
       <c r="T691" s="3"/>
     </row>
-    <row r="692" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="692" spans="8:8" ht="14.25" customHeight="1">
       <c r="A692" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50490,7 +50491,7 @@
       </c>
       <c r="T692" s="3"/>
     </row>
-    <row r="693" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="693" spans="8:8" ht="14.25" customHeight="1">
       <c r="A693" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50544,7 +50545,7 @@
       </c>
       <c r="T693" s="3"/>
     </row>
-    <row r="694" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="694" spans="8:8" ht="14.25" customHeight="1">
       <c r="A694" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50602,7 +50603,7 @@
       </c>
       <c r="T694" s="3"/>
     </row>
-    <row r="695" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="695" spans="8:8" ht="14.25" customHeight="1">
       <c r="A695" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50662,7 +50663,7 @@
       </c>
       <c r="T695" s="3"/>
     </row>
-    <row r="696" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="696" spans="8:8" ht="14.25" customHeight="1">
       <c r="A696" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50720,7 +50721,7 @@
       </c>
       <c r="T696" s="3"/>
     </row>
-    <row r="697" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="697" spans="8:8" ht="14.25" customHeight="1">
       <c r="A697" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50778,7 +50779,7 @@
       </c>
       <c r="T697" s="3"/>
     </row>
-    <row r="698" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="698" spans="8:8" ht="14.25" customHeight="1">
       <c r="A698" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50836,7 +50837,7 @@
       </c>
       <c r="T698" s="3"/>
     </row>
-    <row r="699" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="699" spans="8:8" ht="14.25" customHeight="1">
       <c r="A699" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50894,7 +50895,7 @@
       </c>
       <c r="T699" s="3"/>
     </row>
-    <row r="700" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="700" spans="8:8" ht="14.25" customHeight="1">
       <c r="A700" s="3" t="s">
         <v>2233</v>
       </c>
@@ -50948,7 +50949,7 @@
       </c>
       <c r="T700" s="3"/>
     </row>
-    <row r="701" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="701" spans="8:8" ht="14.25" customHeight="1">
       <c r="A701" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51002,7 +51003,7 @@
       </c>
       <c r="T701" s="3"/>
     </row>
-    <row r="702" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="702" spans="8:8" ht="14.25" customHeight="1">
       <c r="A702" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51058,7 +51059,7 @@
       </c>
       <c r="T702" s="3"/>
     </row>
-    <row r="703" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="703" spans="8:8" ht="14.25" customHeight="1">
       <c r="A703" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51116,7 +51117,7 @@
       </c>
       <c r="T703" s="3"/>
     </row>
-    <row r="704" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="704" spans="8:8" ht="14.25" customHeight="1">
       <c r="A704" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51174,7 +51175,7 @@
       </c>
       <c r="T704" s="3"/>
     </row>
-    <row r="705" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="705" spans="8:8" ht="14.25" customHeight="1">
       <c r="A705" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51228,7 +51229,7 @@
       </c>
       <c r="T705" s="3"/>
     </row>
-    <row r="706" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="706" spans="8:8" ht="14.25" customHeight="1">
       <c r="A706" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51282,7 +51283,7 @@
       </c>
       <c r="T706" s="3"/>
     </row>
-    <row r="707" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="707" spans="8:8" ht="14.25" customHeight="1">
       <c r="A707" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51338,7 +51339,7 @@
       </c>
       <c r="T707" s="3"/>
     </row>
-    <row r="708" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="708" spans="8:8" ht="14.25" customHeight="1">
       <c r="A708" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51394,7 +51395,7 @@
       </c>
       <c r="T708" s="3"/>
     </row>
-    <row r="709" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="709" spans="8:8" ht="14.25" customHeight="1">
       <c r="A709" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51448,7 +51449,7 @@
       </c>
       <c r="T709" s="3"/>
     </row>
-    <row r="710" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="710" spans="8:8" ht="14.25" customHeight="1">
       <c r="A710" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51506,7 +51507,7 @@
       </c>
       <c r="T710" s="3"/>
     </row>
-    <row r="711" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="711" spans="8:8" ht="14.25" customHeight="1">
       <c r="A711" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51564,7 +51565,7 @@
       </c>
       <c r="T711" s="3"/>
     </row>
-    <row r="712" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="712" spans="8:8" ht="14.25" customHeight="1">
       <c r="A712" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51622,7 +51623,7 @@
       </c>
       <c r="T712" s="3"/>
     </row>
-    <row r="713" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="713" spans="8:8" ht="14.25" customHeight="1">
       <c r="A713" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51676,7 +51677,7 @@
       </c>
       <c r="T713" s="3"/>
     </row>
-    <row r="714" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="714" spans="8:8" ht="14.25" customHeight="1">
       <c r="A714" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51734,7 +51735,7 @@
       </c>
       <c r="T714" s="3"/>
     </row>
-    <row r="715" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="715" spans="8:8" ht="14.25" customHeight="1">
       <c r="A715" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51792,7 +51793,7 @@
       </c>
       <c r="T715" s="3"/>
     </row>
-    <row r="716" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="716" spans="8:8" ht="14.25" customHeight="1">
       <c r="A716" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51846,7 +51847,7 @@
       </c>
       <c r="T716" s="3"/>
     </row>
-    <row r="717" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="717" spans="8:8" ht="14.25" customHeight="1">
       <c r="A717" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51904,7 +51905,7 @@
       </c>
       <c r="T717" s="3"/>
     </row>
-    <row r="718" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="718" spans="8:8" ht="14.25" customHeight="1">
       <c r="A718" s="3" t="s">
         <v>2233</v>
       </c>
@@ -51958,7 +51959,7 @@
       </c>
       <c r="T718" s="3"/>
     </row>
-    <row r="719" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="719" spans="8:8" ht="14.25" customHeight="1">
       <c r="A719" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52012,7 +52013,7 @@
       </c>
       <c r="T719" s="3"/>
     </row>
-    <row r="720" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="720" spans="8:8" ht="14.25" customHeight="1">
       <c r="A720" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52070,7 +52071,7 @@
       </c>
       <c r="T720" s="3"/>
     </row>
-    <row r="721" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="721" spans="8:8" ht="14.25" customHeight="1">
       <c r="A721" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52126,7 +52127,7 @@
       </c>
       <c r="T721" s="3"/>
     </row>
-    <row r="722" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="722" spans="8:8" ht="14.25" customHeight="1">
       <c r="A722" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52184,7 +52185,7 @@
       </c>
       <c r="T722" s="3"/>
     </row>
-    <row r="723" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="723" spans="8:8" ht="14.25" customHeight="1">
       <c r="A723" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52238,7 +52239,7 @@
       </c>
       <c r="T723" s="3"/>
     </row>
-    <row r="724" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="724" spans="8:8" ht="14.25" customHeight="1">
       <c r="A724" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52292,7 +52293,7 @@
       </c>
       <c r="T724" s="3"/>
     </row>
-    <row r="725" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="725" spans="8:8" ht="14.25" customHeight="1">
       <c r="A725" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52346,7 +52347,7 @@
       </c>
       <c r="T725" s="3"/>
     </row>
-    <row r="726" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="726" spans="8:8" ht="14.25" customHeight="1">
       <c r="A726" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52404,7 +52405,7 @@
       </c>
       <c r="T726" s="3"/>
     </row>
-    <row r="727" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="727" spans="8:8" ht="14.25" customHeight="1">
       <c r="A727" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52462,7 +52463,7 @@
       </c>
       <c r="T727" s="3"/>
     </row>
-    <row r="728" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="728" spans="8:8" ht="14.25" customHeight="1">
       <c r="A728" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52520,7 +52521,7 @@
       </c>
       <c r="T728" s="3"/>
     </row>
-    <row r="729" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="729" spans="8:8" ht="14.25" customHeight="1">
       <c r="A729" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52578,7 +52579,7 @@
       </c>
       <c r="T729" s="3"/>
     </row>
-    <row r="730" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="730" spans="8:8" ht="14.25" customHeight="1">
       <c r="A730" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52632,7 +52633,7 @@
       </c>
       <c r="T730" s="3"/>
     </row>
-    <row r="731" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="731" spans="8:8" ht="14.25" customHeight="1">
       <c r="A731" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52686,7 +52687,7 @@
       </c>
       <c r="T731" s="3"/>
     </row>
-    <row r="732" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="732" spans="8:8" ht="14.25" customHeight="1">
       <c r="A732" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52740,7 +52741,7 @@
       </c>
       <c r="T732" s="3"/>
     </row>
-    <row r="733" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="733" spans="8:8" ht="14.25" customHeight="1">
       <c r="A733" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52794,7 +52795,7 @@
       </c>
       <c r="T733" s="3"/>
     </row>
-    <row r="734" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="734" spans="8:8" ht="14.25" customHeight="1">
       <c r="A734" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52848,7 +52849,7 @@
       </c>
       <c r="T734" s="3"/>
     </row>
-    <row r="735" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="735" spans="8:8" ht="14.25" customHeight="1">
       <c r="A735" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52902,7 +52903,7 @@
       </c>
       <c r="T735" s="3"/>
     </row>
-    <row r="736" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="736" spans="8:8" ht="14.25" customHeight="1">
       <c r="A736" s="3" t="s">
         <v>2233</v>
       </c>
@@ -52960,7 +52961,7 @@
       </c>
       <c r="T736" s="3"/>
     </row>
-    <row r="737" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="737" spans="8:8" ht="14.25" customHeight="1">
       <c r="A737" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53018,7 +53019,7 @@
       </c>
       <c r="T737" s="3"/>
     </row>
-    <row r="738" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="738" spans="8:8" ht="14.25" customHeight="1">
       <c r="A738" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53076,7 +53077,7 @@
       </c>
       <c r="T738" s="3"/>
     </row>
-    <row r="739" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="739" spans="8:8" ht="14.25" customHeight="1">
       <c r="A739" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53134,7 +53135,7 @@
       </c>
       <c r="T739" s="3"/>
     </row>
-    <row r="740" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="740" spans="8:8" ht="14.25" customHeight="1">
       <c r="A740" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53188,7 +53189,7 @@
       </c>
       <c r="T740" s="3"/>
     </row>
-    <row r="741" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="741" spans="8:8" ht="14.25" customHeight="1">
       <c r="A741" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53242,7 +53243,7 @@
       </c>
       <c r="T741" s="3"/>
     </row>
-    <row r="742" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="742" spans="8:8" ht="14.25" customHeight="1">
       <c r="A742" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53300,7 +53301,7 @@
       </c>
       <c r="T742" s="3"/>
     </row>
-    <row r="743" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="743" spans="8:8" ht="14.25" customHeight="1">
       <c r="A743" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53354,7 +53355,7 @@
       </c>
       <c r="T743" s="3"/>
     </row>
-    <row r="744" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="744" spans="8:8" ht="14.25" customHeight="1">
       <c r="A744" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53412,7 +53413,7 @@
       </c>
       <c r="T744" s="3"/>
     </row>
-    <row r="745" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="745" spans="8:8" ht="14.25" customHeight="1">
       <c r="A745" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53470,7 +53471,7 @@
       </c>
       <c r="T745" s="3"/>
     </row>
-    <row r="746" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="746" spans="8:8" ht="14.25" customHeight="1">
       <c r="A746" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53528,7 +53529,7 @@
       </c>
       <c r="T746" s="3"/>
     </row>
-    <row r="747" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="747" spans="8:8" ht="14.25" customHeight="1">
       <c r="A747" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53586,7 +53587,7 @@
       </c>
       <c r="T747" s="3"/>
     </row>
-    <row r="748" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="748" spans="8:8" ht="14.25" customHeight="1">
       <c r="A748" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53640,7 +53641,7 @@
       </c>
       <c r="T748" s="3"/>
     </row>
-    <row r="749" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="749" spans="8:8" ht="14.25" customHeight="1">
       <c r="A749" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53698,7 +53699,7 @@
       </c>
       <c r="T749" s="3"/>
     </row>
-    <row r="750" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="750" spans="8:8" ht="14.25" customHeight="1">
       <c r="A750" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53752,7 +53753,7 @@
       </c>
       <c r="T750" s="3"/>
     </row>
-    <row r="751" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="751" spans="8:8" ht="14.25" customHeight="1">
       <c r="A751" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53810,7 +53811,7 @@
       </c>
       <c r="T751" s="3"/>
     </row>
-    <row r="752" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="752" spans="8:8" ht="14.25" customHeight="1">
       <c r="A752" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53868,7 +53869,7 @@
       </c>
       <c r="T752" s="3"/>
     </row>
-    <row r="753" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="753" spans="8:8" ht="14.25" customHeight="1">
       <c r="A753" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53924,7 +53925,7 @@
       </c>
       <c r="T753" s="3"/>
     </row>
-    <row r="754" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="754" spans="8:8" ht="14.25" customHeight="1">
       <c r="A754" s="3" t="s">
         <v>2233</v>
       </c>
@@ -53978,7 +53979,7 @@
       </c>
       <c r="T754" s="3"/>
     </row>
-    <row r="755" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="755" spans="8:8" ht="14.25" customHeight="1">
       <c r="A755" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54032,7 +54033,7 @@
       </c>
       <c r="T755" s="3"/>
     </row>
-    <row r="756" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="756" spans="8:8" ht="14.25" customHeight="1">
       <c r="A756" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54086,7 +54087,7 @@
       </c>
       <c r="T756" s="3"/>
     </row>
-    <row r="757" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="757" spans="8:8" ht="14.25" customHeight="1">
       <c r="A757" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54144,7 +54145,7 @@
       </c>
       <c r="T757" s="3"/>
     </row>
-    <row r="758" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="758" spans="8:8" ht="14.25" customHeight="1">
       <c r="A758" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54202,7 +54203,7 @@
       </c>
       <c r="T758" s="3"/>
     </row>
-    <row r="759" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="759" spans="8:8" ht="14.25" customHeight="1">
       <c r="A759" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54256,7 +54257,7 @@
       </c>
       <c r="T759" s="3"/>
     </row>
-    <row r="760" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="760" spans="8:8" ht="14.25" customHeight="1">
       <c r="A760" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54310,7 +54311,7 @@
       </c>
       <c r="T760" s="3"/>
     </row>
-    <row r="761" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="761" spans="8:8" ht="14.25" customHeight="1">
       <c r="A761" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54364,7 +54365,7 @@
       </c>
       <c r="T761" s="3"/>
     </row>
-    <row r="762" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="762" spans="8:8" ht="14.25" customHeight="1">
       <c r="A762" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54422,7 +54423,7 @@
       </c>
       <c r="T762" s="3"/>
     </row>
-    <row r="763" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="763" spans="8:8" ht="14.25" customHeight="1">
       <c r="A763" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54476,7 +54477,7 @@
       </c>
       <c r="T763" s="3"/>
     </row>
-    <row r="764" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="764" spans="8:8" ht="14.25" customHeight="1">
       <c r="A764" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54530,7 +54531,7 @@
       </c>
       <c r="T764" s="3"/>
     </row>
-    <row r="765" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="765" spans="8:8" ht="14.25" customHeight="1">
       <c r="A765" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54588,7 +54589,7 @@
       </c>
       <c r="T765" s="3"/>
     </row>
-    <row r="766" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="766" spans="8:8" ht="14.25" customHeight="1">
       <c r="A766" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54642,7 +54643,7 @@
       </c>
       <c r="T766" s="3"/>
     </row>
-    <row r="767" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="767" spans="8:8" ht="14.25" customHeight="1">
       <c r="A767" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54696,7 +54697,7 @@
       </c>
       <c r="T767" s="3"/>
     </row>
-    <row r="768" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="768" spans="8:8" ht="14.25" customHeight="1">
       <c r="A768" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54750,7 +54751,7 @@
       </c>
       <c r="T768" s="3"/>
     </row>
-    <row r="769" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="769" spans="8:8" ht="14.25" customHeight="1">
       <c r="A769" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54808,7 +54809,7 @@
       </c>
       <c r="T769" s="3"/>
     </row>
-    <row r="770" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="770" spans="8:8" ht="14.25" customHeight="1">
       <c r="A770" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54868,7 +54869,7 @@
       </c>
       <c r="T770" s="3"/>
     </row>
-    <row r="771" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="771" spans="8:8" ht="14.25" customHeight="1">
       <c r="A771" s="3" t="s">
         <v>2233</v>
       </c>
@@ -54924,7 +54925,7 @@
       </c>
       <c r="T771" s="3"/>
     </row>
-    <row r="772" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="772" spans="8:8" ht="14.25" customHeight="1">
       <c r="A772" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55028,7 +55029,7 @@
       </c>
       <c r="T773" s="3"/>
     </row>
-    <row r="774" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="774" spans="8:8" ht="14.25" customHeight="1">
       <c r="A774" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55082,7 +55083,7 @@
       </c>
       <c r="T774" s="3"/>
     </row>
-    <row r="775" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="775" spans="8:8" ht="14.25" customHeight="1">
       <c r="A775" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55136,7 +55137,7 @@
       </c>
       <c r="T775" s="3"/>
     </row>
-    <row r="776" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="776" spans="8:8" ht="14.25" customHeight="1">
       <c r="A776" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55190,7 +55191,7 @@
       </c>
       <c r="T776" s="3"/>
     </row>
-    <row r="777" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="777" spans="8:8" ht="14.25" customHeight="1">
       <c r="A777" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55244,7 +55245,7 @@
       </c>
       <c r="T777" s="3"/>
     </row>
-    <row r="778" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="778" spans="8:8" ht="14.25" customHeight="1">
       <c r="A778" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55298,7 +55299,7 @@
       </c>
       <c r="T778" s="3"/>
     </row>
-    <row r="779" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="779" spans="8:8" ht="14.25" customHeight="1">
       <c r="A779" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55352,7 +55353,7 @@
       </c>
       <c r="T779" s="3"/>
     </row>
-    <row r="780" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="780" spans="8:8" ht="14.25" customHeight="1">
       <c r="A780" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55410,7 +55411,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="781" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="781" spans="8:8" ht="14.25" customHeight="1">
       <c r="A781" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55468,7 +55469,7 @@
       </c>
       <c r="T781" s="3"/>
     </row>
-    <row r="782" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="782" spans="8:8" ht="14.25" customHeight="1">
       <c r="A782" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55572,7 +55573,7 @@
       </c>
       <c r="T783" s="3"/>
     </row>
-    <row r="784" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="784" spans="8:8" ht="14.25" customHeight="1">
       <c r="A784" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55626,7 +55627,7 @@
       </c>
       <c r="T784" s="3"/>
     </row>
-    <row r="785" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="785" spans="8:8" ht="14.25" customHeight="1">
       <c r="A785" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55684,7 +55685,7 @@
       </c>
       <c r="T785" s="3"/>
     </row>
-    <row r="786" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="786" spans="8:8" ht="14.25" customHeight="1">
       <c r="A786" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55738,7 +55739,7 @@
       </c>
       <c r="T786" s="3"/>
     </row>
-    <row r="787" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="787" spans="8:8" ht="14.25" customHeight="1">
       <c r="A787" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55792,7 +55793,7 @@
       </c>
       <c r="T787" s="3"/>
     </row>
-    <row r="788" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="788" spans="8:8" ht="14.25" customHeight="1">
       <c r="A788" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55848,7 +55849,7 @@
       </c>
       <c r="T788" s="3"/>
     </row>
-    <row r="789" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="789" spans="8:8" ht="14.25" customHeight="1">
       <c r="A789" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55906,7 +55907,7 @@
       </c>
       <c r="T789" s="3"/>
     </row>
-    <row r="790" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="790" spans="8:8" ht="14.25" customHeight="1">
       <c r="A790" s="3" t="s">
         <v>2233</v>
       </c>
@@ -55964,7 +55965,7 @@
       </c>
       <c r="T790" s="3"/>
     </row>
-    <row r="791" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="791" spans="8:8" ht="14.25" customHeight="1">
       <c r="A791" s="3" t="s">
         <v>2233</v>
       </c>
@@ -56018,7 +56019,7 @@
       </c>
       <c r="T791" s="3"/>
     </row>
-    <row r="792" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="792" spans="8:8" ht="14.25" customHeight="1">
       <c r="A792" s="3" t="s">
         <v>2233</v>
       </c>
@@ -56072,7 +56073,7 @@
       </c>
       <c r="T792" s="3"/>
     </row>
-    <row r="793" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="793" spans="8:8" ht="14.25" customHeight="1">
       <c r="A793" s="3" t="s">
         <v>2233</v>
       </c>
@@ -56130,7 +56131,7 @@
       </c>
       <c r="T793" s="3"/>
     </row>
-    <row r="794" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="794" spans="8:8" ht="14.25" customHeight="1">
       <c r="A794" s="3" t="s">
         <v>2233</v>
       </c>
@@ -56184,7 +56185,7 @@
       </c>
       <c r="T794" s="3"/>
     </row>
-    <row r="795" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="795" spans="8:8" ht="14.25" customHeight="1">
       <c r="A795" s="3" t="s">
         <v>2233</v>
       </c>
@@ -56238,7 +56239,7 @@
       </c>
       <c r="T795" s="3"/>
     </row>
-    <row r="796" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="796" spans="8:8" ht="14.25" customHeight="1">
       <c r="A796" s="3" t="s">
         <v>2233</v>
       </c>
@@ -56292,7 +56293,7 @@
       </c>
       <c r="T796" s="3"/>
     </row>
-    <row r="797" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="797" spans="8:8" ht="14.25" customHeight="1">
       <c r="A797" s="3" t="s">
         <v>2233</v>
       </c>
@@ -56346,7 +56347,7 @@
       </c>
       <c r="T797" s="3"/>
     </row>
-    <row r="798" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="798" spans="8:8" ht="14.25" customHeight="1">
       <c r="A798" s="3" t="s">
         <v>2233</v>
       </c>
@@ -56406,7 +56407,7 @@
       </c>
       <c r="T798" s="3"/>
     </row>
-    <row r="799" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="799" spans="8:8" ht="14.25" customHeight="1">
       <c r="A799" s="3" t="s">
         <v>2233</v>
       </c>
@@ -56464,7 +56465,7 @@
       </c>
       <c r="T799" s="3"/>
     </row>
-    <row r="800" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="800" spans="8:8" ht="14.25" customHeight="1">
       <c r="A800" s="3" t="s">
         <v>2233</v>
       </c>
@@ -56518,7 +56519,7 @@
       </c>
       <c r="T800" s="3"/>
     </row>
-    <row r="801" spans="8:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="801" spans="8:8" ht="14.25" customHeight="1">
       <c r="A801" s="3" t="s">
         <v>2233</v>
       </c>
@@ -56574,11 +56575,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R801">
-    <filterColumn colId="13" showButton="1">
-      <filters>
-        <filter val="Misconfiguration"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="0" showButton="1"/>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
